--- a/sam 구축/sam_09_1.xlsx
+++ b/sam 구축/sam_09_1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyokim/main/jupyter/2022:Summer/프로젝트/sam 구축/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Innovation\Desktop\김동요\jupyter\프로젝트\sam 구축\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586FD239-A625-7B4F-82BE-3EDDBF6D1C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32880" yWindow="1700" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32880" yWindow="1695" windowWidth="28800" windowHeight="17505" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="설명표" sheetId="1" r:id="rId1"/>
@@ -19,8 +18,9 @@
     <sheet name="미시 사회계정행렬" sheetId="7" r:id="rId4"/>
     <sheet name="미시 사회계정행렬 (국산)" sheetId="9" r:id="rId5"/>
     <sheet name="미시 사회계정행렬 (최종)" sheetId="10" r:id="rId6"/>
+    <sheet name="미시 사회계정행렬 (최종 국산)" sheetId="11" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="62">
   <si>
     <t>생산활동</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,19 +265,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>관새</t>
+    <t>관세</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -498,6 +498,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -505,15 +514,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -841,21 +841,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -884,7 +884,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -923,7 +923,7 @@
       </c>
       <c r="O2" s="10"/>
     </row>
-    <row r="3" spans="1:15" ht="39" customHeight="1">
+    <row r="3" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -946,7 +946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="39" customHeight="1">
+    <row r="4" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
@@ -957,7 +957,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="39" customHeight="1">
+    <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" t="s">
         <v>4</v>
@@ -966,7 +966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="39" customHeight="1">
+    <row r="6" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
@@ -980,7 +980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="39" customHeight="1">
+    <row r="7" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" t="s">
         <v>7</v>
@@ -989,7 +989,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="39" customHeight="1">
+    <row r="8" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" t="s">
         <v>8</v>
@@ -1010,7 +1010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="39" customHeight="1">
+    <row r="9" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="39" customHeight="1">
+    <row r="10" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="39" customHeight="1">
+    <row r="11" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" t="s">
         <v>13</v>
@@ -1047,7 +1047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="39" customHeight="1">
+    <row r="12" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" t="s">
         <v>14</v>
@@ -1056,7 +1056,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="39" customHeight="1">
+    <row r="13" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>18</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="39" customHeight="1">
+    <row r="14" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" t="s">
         <v>16</v>
@@ -1079,7 +1079,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="39" customHeight="1">
+    <row r="15" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>17</v>
       </c>
@@ -1087,16 +1087,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1104,20 +1104,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="15.42578125" customWidth="1"/>
+    <col min="2" max="3" width="15.44140625" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="1" t="s">
@@ -1135,12 +1135,12 @@
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="14"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
       <c r="N1" s="11" t="s">
         <v>18</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="1" t="s">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="P2" s="11"/>
     </row>
-    <row r="3" spans="1:16" ht="39" customHeight="1">
+    <row r="3" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>5097495.7550000008</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="39" customHeight="1">
+    <row r="4" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>913408.76399999997</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="39" customHeight="1">
+    <row r="5" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -1282,7 +1282,7 @@
         <v>826673.0120000001</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="39" customHeight="1">
+    <row r="6" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>1175386.4639999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="39" customHeight="1">
+    <row r="7" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -1337,7 +1337,7 @@
         <v>564695.31200000015</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="39" customHeight="1">
+    <row r="8" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -1372,7 +1372,7 @@
         <v>462297.98</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="39" customHeight="1">
+    <row r="9" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1403,8 +1403,8 @@
         <v>670614.69999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="39" customHeight="1">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1430,8 +1430,8 @@
         <v>160659.128</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="39" customHeight="1">
-      <c r="A11" s="16"/>
+    <row r="11" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1455,8 +1455,8 @@
         <v>72174.278000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="39" customHeight="1">
-      <c r="A12" s="16"/>
+    <row r="12" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1480,8 +1480,8 @@
         <v>96355.684999999823</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="39" customHeight="1">
-      <c r="A13" s="17"/>
+    <row r="13" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
       <c r="B13" s="1" t="s">
         <v>60</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>23757.155999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="39" customHeight="1">
+    <row r="14" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>761603.00699999998</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="39" customHeight="1">
+    <row r="15" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
         <v>16</v>
@@ -1560,7 +1560,7 @@
         <v>761603.00699999998</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="39" customHeight="1">
+    <row r="16" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>17</v>
       </c>
@@ -1619,22 +1619,22 @@
       </c>
       <c r="P16" s="4"/>
     </row>
-    <row r="24" spans="9:9">
+    <row r="24" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="J1:M1"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A13"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="J1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1642,20 +1642,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE170A0-C862-F14F-B837-B703A4FA87FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="15.42578125" customWidth="1"/>
+    <col min="2" max="3" width="15.44140625" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="1" t="s">
@@ -1673,12 +1673,12 @@
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="14"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
       <c r="N1" s="11" t="s">
         <v>18</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="1" t="s">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="P2" s="11"/>
     </row>
-    <row r="3" spans="1:16" ht="39" customHeight="1">
+    <row r="3" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>4560429.5980000002</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="39" customHeight="1">
+    <row r="4" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>913408.76399999997</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="39" customHeight="1">
+    <row r="5" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -1820,7 +1820,7 @@
         <v>826673.0120000001</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="39" customHeight="1">
+    <row r="6" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>1175386.4639999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="39" customHeight="1">
+    <row r="7" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -1875,7 +1875,7 @@
         <v>564695.31200000015</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="39" customHeight="1">
+    <row r="8" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -1910,7 +1910,7 @@
         <v>462297.98</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="39" customHeight="1">
+    <row r="9" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1941,8 +1941,8 @@
         <v>670614.69999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="39" customHeight="1">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1968,8 +1968,8 @@
         <v>160659.128</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="39" customHeight="1">
-      <c r="A11" s="16"/>
+    <row r="11" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1993,8 +1993,8 @@
         <v>72174.278000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="39" customHeight="1">
-      <c r="A12" s="16"/>
+    <row r="12" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2018,8 +2018,8 @@
         <v>96355.684999999823</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="39" customHeight="1">
-      <c r="A13" s="17"/>
+    <row r="13" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
       <c r="B13" s="1" t="s">
         <v>60</v>
       </c>
@@ -2038,9 +2038,12 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-    </row>
-    <row r="14" spans="1:16" ht="39" customHeight="1">
+      <c r="P13" s="4">
+        <f t="shared" si="0"/>
+        <v>23757.155999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
@@ -2067,7 +2070,7 @@
         <v>761603.00699999998</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="39" customHeight="1">
+    <row r="15" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
         <v>16</v>
@@ -2095,7 +2098,7 @@
         <v>761603.00699999998</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="39" customHeight="1">
+    <row r="16" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>17</v>
       </c>
@@ -2105,7 +2108,7 @@
         <v>4560429.5980000002</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" ref="D16:O16" si="1">SUM(D3:D15)</f>
+        <f t="shared" ref="D16:P16" si="1">SUM(D3:D15)</f>
         <v>913408.76399999997</v>
       </c>
       <c r="E16" s="4">
@@ -2140,7 +2143,10 @@
         <f t="shared" si="1"/>
         <v>96355.684999999823</v>
       </c>
-      <c r="M16" s="4"/>
+      <c r="M16" s="4">
+        <f t="shared" si="1"/>
+        <v>23757.155999999999</v>
+      </c>
       <c r="N16" s="4">
         <f t="shared" si="1"/>
         <v>761603.00699999998</v>
@@ -2151,22 +2157,22 @@
       </c>
       <c r="P16" s="4"/>
     </row>
-    <row r="24" spans="9:9">
+    <row r="24" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A10:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="J1:M1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2174,44 +2180,44 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="73" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="73" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomRight" activeCell="I37" sqref="I37:AL38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="33" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="24" max="28" width="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="30" max="32" width="11" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11" customWidth="1"/>
     <col min="34" max="36" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="33" customHeight="1">
+    <row r="1" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="11" t="s">
@@ -2249,12 +2255,12 @@
       <c r="AC1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AD1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="14"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="17"/>
       <c r="AH1" s="11" t="s">
         <v>18</v>
       </c>
@@ -2263,7 +2269,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="33" customHeight="1">
+    <row r="2" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="1" t="s">
@@ -2367,7 +2373,7 @@
       </c>
       <c r="AJ2" s="11"/>
     </row>
-    <row r="3" spans="1:38" ht="33" customHeight="1">
+    <row r="3" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -2463,7 +2469,7 @@
       </c>
       <c r="AL3" s="2"/>
     </row>
-    <row r="4" spans="1:38" ht="33" customHeight="1">
+    <row r="4" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>35</v>
@@ -2556,7 +2562,7 @@
         <v>150977.182</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="33" customHeight="1">
+    <row r="5" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>36</v>
@@ -2649,7 +2655,7 @@
         <v>2241252.3016307</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="33" customHeight="1">
+    <row r="6" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>37</v>
@@ -2742,7 +2748,7 @@
         <v>179126.80124100001</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="33" customHeight="1">
+    <row r="7" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>38</v>
@@ -2835,7 +2841,7 @@
         <v>121361.61599999999</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="33" customHeight="1">
+    <row r="8" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
         <v>39</v>
@@ -2928,7 +2934,7 @@
         <v>275175.86499999999</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="33" customHeight="1">
+    <row r="9" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="1" t="s">
         <v>40</v>
@@ -3021,7 +3027,7 @@
         <v>179806.57399999999</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="33" customHeight="1">
+    <row r="10" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
         <v>41</v>
@@ -3114,7 +3120,7 @@
         <v>190141.247</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="33" customHeight="1">
+    <row r="11" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="1" t="s">
         <v>42</v>
@@ -3207,7 +3213,7 @@
         <v>124597.65550840001</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="33" customHeight="1">
+    <row r="12" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="1" t="s">
         <v>43</v>
@@ -3300,7 +3306,7 @@
         <v>188464.76500000001</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="33" customHeight="1">
+    <row r="13" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
         <v>44</v>
@@ -3393,7 +3399,7 @@
         <v>232016.86000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="33" customHeight="1">
+    <row r="14" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="1" t="s">
         <v>45</v>
@@ -3486,7 +3492,7 @@
         <v>338248.21692560002</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="33" customHeight="1">
+    <row r="15" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
         <v>46</v>
@@ -3579,7 +3585,7 @@
         <v>160046.372</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="33" customHeight="1">
+    <row r="16" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="1" t="s">
         <v>47</v>
@@ -3672,7 +3678,7 @@
         <v>132374.12899999999</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="33" customHeight="1">
+    <row r="17" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="1" t="s">
         <v>48</v>
@@ -3765,7 +3771,7 @@
         <v>167751.88099999999</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="33" customHeight="1">
+    <row r="18" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="1" t="s">
         <v>49</v>
@@ -3858,7 +3864,7 @@
         <v>116722.49395760002</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="33" customHeight="1">
+    <row r="19" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="1" t="s">
         <v>50</v>
@@ -3951,7 +3957,7 @@
         <v>33844.200369300001</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="33" customHeight="1">
+    <row r="20" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="1" t="s">
         <v>51</v>
@@ -4044,7 +4050,7 @@
         <v>110254.13775900002</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="33" customHeight="1">
+    <row r="21" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="1" t="s">
         <v>52</v>
@@ -4137,7 +4143,7 @@
         <v>39883.651491599994</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="33" customHeight="1">
+    <row r="22" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="1" t="s">
         <v>53</v>
@@ -4230,7 +4236,7 @@
         <v>36336.05607440001</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="33" customHeight="1">
+    <row r="23" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="1" t="s">
         <v>54</v>
@@ -4323,7 +4329,7 @@
         <v>4054.3380424000002</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="33" customHeight="1">
+    <row r="24" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>2</v>
       </c>
@@ -4410,7 +4416,7 @@
         <v>913408.76400000008</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="33" customHeight="1">
+    <row r="25" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="1" t="s">
         <v>4</v>
@@ -4495,7 +4501,7 @@
         <v>826673.01199999987</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="33" customHeight="1">
+    <row r="26" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>5</v>
       </c>
@@ -4545,7 +4551,7 @@
         <v>1175386.4640000002</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="33" customHeight="1">
+    <row r="27" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="1" t="s">
         <v>7</v>
@@ -4590,7 +4596,7 @@
         <v>564695.31200000015</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="33" customHeight="1">
+    <row r="28" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="1" t="s">
         <v>8</v>
@@ -4645,7 +4651,7 @@
         <v>462297.98</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="33" customHeight="1">
+    <row r="29" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -4696,8 +4702,8 @@
         <v>670614.69999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="33" customHeight="1">
-      <c r="A30" s="15" t="s">
+    <row r="30" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -4783,8 +4789,8 @@
         <v>160659.128</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="33" customHeight="1">
-      <c r="A31" s="16"/>
+    <row r="31" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
       <c r="B31" s="1" t="s">
         <v>13</v>
       </c>
@@ -4828,8 +4834,8 @@
         <v>72174.278000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="33" customHeight="1">
-      <c r="A32" s="16"/>
+    <row r="32" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
@@ -4873,8 +4879,8 @@
         <v>96355.684999999823</v>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="33" customHeight="1">
-      <c r="A33" s="17"/>
+    <row r="33" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
       <c r="B33" s="1" t="s">
         <v>60</v>
       </c>
@@ -4958,7 +4964,7 @@
         <v>23757.156000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="33" customHeight="1">
+    <row r="34" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>18</v>
       </c>
@@ -5006,7 +5012,7 @@
         <v>761603.0070000001</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="33" customHeight="1">
+    <row r="35" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="1" t="s">
         <v>16</v>
@@ -5093,7 +5099,7 @@
         <v>761603.00699999998</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="33" customHeight="1">
+    <row r="36" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>17</v>
       </c>
@@ -5232,16 +5238,11 @@
       </c>
       <c r="AJ36" s="4"/>
     </row>
-    <row r="39" spans="1:36" ht="33" customHeight="1">
+    <row r="39" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A3:A23"/>
-    <mergeCell ref="A30:A33"/>
     <mergeCell ref="AJ1:AJ2"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="C1:W1"/>
@@ -5250,6 +5251,11 @@
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A3:A23"/>
+    <mergeCell ref="A30:A33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5257,44 +5263,44 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1B0065-0305-A244-98B8-59138E10D835}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM39"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="73" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30:W30"/>
+      <selection pane="bottomRight" activeCell="T39" sqref="T38:AN39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="33" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="24" max="28" width="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="30" max="32" width="11" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11" customWidth="1"/>
     <col min="34" max="36" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="33" customHeight="1">
+    <row r="1" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="11" t="s">
@@ -5332,12 +5338,12 @@
       <c r="AC1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AD1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="14"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="17"/>
       <c r="AH1" s="11" t="s">
         <v>18</v>
       </c>
@@ -5346,7 +5352,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="33" customHeight="1">
+    <row r="2" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="1" t="s">
@@ -5450,7 +5456,7 @@
       </c>
       <c r="AJ2" s="11"/>
     </row>
-    <row r="3" spans="1:39" ht="33" customHeight="1">
+    <row r="3" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -5547,7 +5553,7 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
     </row>
-    <row r="4" spans="1:39" ht="33" customHeight="1">
+    <row r="4" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>35</v>
@@ -5640,7 +5646,7 @@
         <v>6468.3620000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="33" customHeight="1">
+    <row r="5" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>36</v>
@@ -5733,7 +5739,7 @@
         <v>1934621.8735221003</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="33" customHeight="1">
+    <row r="6" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>37</v>
@@ -5826,7 +5832,7 @@
         <v>176748.366783</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="33" customHeight="1">
+    <row r="7" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>38</v>
@@ -5919,7 +5925,7 @@
         <v>121254.18500000001</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="33" customHeight="1">
+    <row r="8" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
         <v>39</v>
@@ -6012,7 +6018,7 @@
         <v>275171.24600000004</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="33" customHeight="1">
+    <row r="9" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="1" t="s">
         <v>40</v>
@@ -6105,7 +6111,7 @@
         <v>164675.005</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="33" customHeight="1">
+    <row r="10" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
         <v>41</v>
@@ -6198,7 +6204,7 @@
         <v>188263.79900000003</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="33" customHeight="1">
+    <row r="11" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="1" t="s">
         <v>42</v>
@@ -6291,7 +6297,7 @@
         <v>119801.93171380002</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="33" customHeight="1">
+    <row r="12" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="1" t="s">
         <v>43</v>
@@ -6384,7 +6390,7 @@
         <v>185422.64699999997</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="33" customHeight="1">
+    <row r="13" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
         <v>44</v>
@@ -6477,7 +6483,7 @@
         <v>230695.64600000001</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="33" customHeight="1">
+    <row r="14" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="1" t="s">
         <v>45</v>
@@ -6571,7 +6577,7 @@
       </c>
       <c r="AM14" s="2"/>
     </row>
-    <row r="15" spans="1:39" ht="33" customHeight="1">
+    <row r="15" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
         <v>46</v>
@@ -6664,7 +6670,7 @@
         <v>159394.38399999999</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="33" customHeight="1">
+    <row r="16" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="1" t="s">
         <v>47</v>
@@ -6757,7 +6763,7 @@
         <v>132366.633</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="33" customHeight="1">
+    <row r="17" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="1" t="s">
         <v>48</v>
@@ -6850,7 +6856,7 @@
         <v>167750.666</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="33" customHeight="1">
+    <row r="18" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="1" t="s">
         <v>49</v>
@@ -6943,7 +6949,7 @@
         <v>115642.37940960001</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="33" customHeight="1">
+    <row r="19" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="1" t="s">
         <v>50</v>
@@ -7036,7 +7042,7 @@
         <v>28800.360477899994</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="33" customHeight="1">
+    <row r="20" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="1" t="s">
         <v>51</v>
@@ -7129,7 +7135,7 @@
         <v>108790.19021700001</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="33" customHeight="1">
+    <row r="21" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="1" t="s">
         <v>52</v>
@@ -7222,7 +7228,7 @@
         <v>37289.520286200001</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="33" customHeight="1">
+    <row r="22" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="1" t="s">
         <v>53</v>
@@ -7315,7 +7321,7 @@
         <v>31972.066171599996</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="33" customHeight="1">
+    <row r="23" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="1" t="s">
         <v>54</v>
@@ -7408,7 +7414,7 @@
         <v>3980.0625904000003</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="33" customHeight="1">
+    <row r="24" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>2</v>
       </c>
@@ -7495,7 +7501,7 @@
         <v>913408.76400000008</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="33" customHeight="1">
+    <row r="25" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="1" t="s">
         <v>4</v>
@@ -7580,7 +7586,7 @@
         <v>826673.01199999987</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="33" customHeight="1">
+    <row r="26" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>5</v>
       </c>
@@ -7630,7 +7636,7 @@
         <v>1175386.4640000002</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="33" customHeight="1">
+    <row r="27" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="1" t="s">
         <v>7</v>
@@ -7675,7 +7681,7 @@
         <v>564695.31200000015</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="33" customHeight="1">
+    <row r="28" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="1" t="s">
         <v>8</v>
@@ -7731,7 +7737,7 @@
         <v>462297.98000000033</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="33" customHeight="1">
+    <row r="29" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -7782,8 +7788,8 @@
         <v>670614.69999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="33" customHeight="1">
-      <c r="A30" s="15" t="s">
+    <row r="30" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -7869,8 +7875,8 @@
         <v>160659.12800000035</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="33" customHeight="1">
-      <c r="A31" s="16"/>
+    <row r="31" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
       <c r="B31" s="1" t="s">
         <v>13</v>
       </c>
@@ -7914,8 +7920,8 @@
         <v>72174.278000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="33" customHeight="1">
-      <c r="A32" s="16"/>
+    <row r="32" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
@@ -7959,8 +7965,8 @@
         <v>96355.684999999823</v>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="33" customHeight="1">
-      <c r="A33" s="17"/>
+    <row r="33" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
       <c r="B33" s="1" t="s">
         <v>60</v>
       </c>
@@ -8044,7 +8050,7 @@
         <v>23757.156000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="33" customHeight="1">
+    <row r="34" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>18</v>
       </c>
@@ -8092,7 +8098,7 @@
         <v>761603.0070000001</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="33" customHeight="1">
+    <row r="35" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="1" t="s">
         <v>16</v>
@@ -8179,7 +8185,7 @@
         <v>761603.00699999998</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="33" customHeight="1">
+    <row r="36" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>17</v>
       </c>
@@ -8318,10 +8324,10 @@
       </c>
       <c r="AJ36" s="4"/>
     </row>
-    <row r="37" spans="1:36" ht="33" customHeight="1">
+    <row r="37" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="7"/>
     </row>
-    <row r="38" spans="1:36" ht="33" customHeight="1">
+    <row r="38" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -8345,7 +8351,7 @@
       <c r="W38" s="2"/>
       <c r="AC38" s="2"/>
     </row>
-    <row r="39" spans="1:36" ht="33" customHeight="1">
+    <row r="39" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="7"/>
     </row>
   </sheetData>
@@ -8370,47 +8376,47 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AC5EE4-436B-354C-B1DD-B035F27D4BD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN41"/>
   <sheetViews>
     <sheetView zoomScale="65" zoomScaleNormal="73" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="33" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="11" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11" customWidth="1"/>
     <col min="27" max="29" width="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.7109375" customWidth="1"/>
+    <col min="30" max="30" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.6640625" customWidth="1"/>
     <col min="32" max="34" width="11" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="11" customWidth="1"/>
     <col min="36" max="38" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="33" customHeight="1">
+    <row r="1" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="11" t="s">
@@ -8436,26 +8442,26 @@
       <c r="U1" s="11"/>
       <c r="V1" s="11"/>
       <c r="W1" s="11"/>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="14"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="17"/>
       <c r="AA1" s="11" t="s">
         <v>5</v>
       </c>
       <c r="AB1" s="11"/>
       <c r="AC1" s="11"/>
-      <c r="AD1" s="12" t="s">
+      <c r="AD1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="12" t="s">
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="14"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="17"/>
       <c r="AJ1" s="11" t="s">
         <v>18</v>
       </c>
@@ -8464,7 +8470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="33" customHeight="1">
+    <row r="2" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="1" t="s">
@@ -8574,7 +8580,7 @@
       </c>
       <c r="AL2" s="11"/>
     </row>
-    <row r="3" spans="1:40" ht="33" customHeight="1">
+    <row r="3" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -8672,7 +8678,7 @@
       </c>
       <c r="AN3" s="2"/>
     </row>
-    <row r="4" spans="1:40" ht="33" customHeight="1">
+    <row r="4" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>35</v>
@@ -8767,7 +8773,7 @@
         <v>150977.182</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="33" customHeight="1">
+    <row r="5" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>36</v>
@@ -8862,7 +8868,7 @@
         <v>2241252.3016307</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="33" customHeight="1">
+    <row r="6" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>37</v>
@@ -8957,7 +8963,7 @@
         <v>179126.80124100001</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="33" customHeight="1">
+    <row r="7" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>38</v>
@@ -9052,7 +9058,7 @@
         <v>121361.61599999999</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="33" customHeight="1">
+    <row r="8" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
         <v>39</v>
@@ -9147,7 +9153,7 @@
         <v>275175.86499999999</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="33" customHeight="1">
+    <row r="9" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="1" t="s">
         <v>40</v>
@@ -9242,7 +9248,7 @@
         <v>179806.57399999999</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="33" customHeight="1">
+    <row r="10" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
         <v>41</v>
@@ -9337,7 +9343,7 @@
         <v>190141.247</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="33" customHeight="1">
+    <row r="11" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="1" t="s">
         <v>42</v>
@@ -9432,7 +9438,7 @@
         <v>124597.65550840001</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="33" customHeight="1">
+    <row r="12" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="1" t="s">
         <v>43</v>
@@ -9527,7 +9533,7 @@
         <v>188464.76500000001</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="33" customHeight="1">
+    <row r="13" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
         <v>44</v>
@@ -9622,7 +9628,7 @@
         <v>232016.86000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="33" customHeight="1">
+    <row r="14" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="1" t="s">
         <v>45</v>
@@ -9717,7 +9723,7 @@
         <v>338248.21692560002</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="33" customHeight="1">
+    <row r="15" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
         <v>46</v>
@@ -9812,7 +9818,7 @@
         <v>160046.372</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="33" customHeight="1">
+    <row r="16" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="1" t="s">
         <v>47</v>
@@ -9907,7 +9913,7 @@
         <v>132374.12899999999</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="33" customHeight="1">
+    <row r="17" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="1" t="s">
         <v>48</v>
@@ -10002,7 +10008,7 @@
         <v>167751.88099999999</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="33" customHeight="1">
+    <row r="18" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="1" t="s">
         <v>49</v>
@@ -10097,7 +10103,7 @@
         <v>116722.49395760002</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="33" customHeight="1">
+    <row r="19" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="1" t="s">
         <v>50</v>
@@ -10192,7 +10198,7 @@
         <v>33844.200369300001</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="33" customHeight="1">
+    <row r="20" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="1" t="s">
         <v>51</v>
@@ -10287,7 +10293,7 @@
         <v>110254.13775900002</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="33" customHeight="1">
+    <row r="21" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="1" t="s">
         <v>52</v>
@@ -10382,7 +10388,7 @@
         <v>39883.651491599994</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="33" customHeight="1">
+    <row r="22" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="1" t="s">
         <v>53</v>
@@ -10477,7 +10483,7 @@
         <v>36336.05607440001</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="33" customHeight="1">
+    <row r="23" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="1" t="s">
         <v>54</v>
@@ -10574,8 +10580,8 @@
         <v>4054.3380424000002</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="33" customHeight="1">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -10663,8 +10669,8 @@
         <v>913408.76400000008</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="33" customHeight="1">
-      <c r="A25" s="16"/>
+    <row r="25" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
       <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
@@ -10735,8 +10741,8 @@
         <v>780032.19400309992</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="33" customHeight="1">
-      <c r="A26" s="17"/>
+    <row r="26" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14"/>
       <c r="B26" s="1" t="s">
         <v>57</v>
       </c>
@@ -10790,7 +10796,7 @@
         <v>46640.817996899998</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="33" customHeight="1">
+    <row r="27" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>5</v>
       </c>
@@ -10842,7 +10848,7 @@
         <v>1175386.4640000002</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="33" customHeight="1">
+    <row r="28" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="1" t="s">
         <v>7</v>
@@ -10891,7 +10897,7 @@
         <v>564695.31200000015</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="33" customHeight="1">
+    <row r="29" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="1" t="s">
         <v>8</v>
@@ -10948,8 +10954,8 @@
         <v>462297.98</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="33" customHeight="1">
-      <c r="A30" s="15" t="s">
+    <row r="30" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -11001,8 +11007,8 @@
         <v>630439.45848869998</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="33" customHeight="1">
-      <c r="A31" s="17"/>
+    <row r="31" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
       <c r="B31" s="1" t="s">
         <v>58</v>
       </c>
@@ -11048,8 +11054,8 @@
         <v>40175.241511300002</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="33" customHeight="1">
-      <c r="A32" s="15" t="s">
+    <row r="32" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -11137,8 +11143,8 @@
         <v>160659.128</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="33" customHeight="1">
-      <c r="A33" s="16"/>
+    <row r="33" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13"/>
       <c r="B33" s="1" t="s">
         <v>13</v>
       </c>
@@ -11184,8 +11190,8 @@
         <v>72174.278000000006</v>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="33" customHeight="1">
-      <c r="A34" s="16"/>
+    <row r="34" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13"/>
       <c r="B34" s="1" t="s">
         <v>14</v>
       </c>
@@ -11231,8 +11237,8 @@
         <v>96355.684999999823</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="33" customHeight="1">
-      <c r="A35" s="17"/>
+    <row r="35" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="14"/>
       <c r="B35" s="1" t="s">
         <v>61</v>
       </c>
@@ -11315,7 +11321,7 @@
       <c r="AK35" s="4"/>
       <c r="AL35" s="4"/>
     </row>
-    <row r="36" spans="1:38" ht="33" customHeight="1">
+    <row r="36" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>18</v>
       </c>
@@ -11364,7 +11370,7 @@
         <v>761603.0070000001</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="33" customHeight="1">
+    <row r="37" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="1" t="s">
         <v>16</v>
@@ -11453,7 +11459,7 @@
         <v>761603.00699999998</v>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="33" customHeight="1">
+    <row r="38" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>17</v>
       </c>
@@ -11586,7 +11592,10 @@
         <f t="shared" si="1"/>
         <v>96355.684999999823</v>
       </c>
-      <c r="AI38" s="4"/>
+      <c r="AI38" s="4">
+        <f t="shared" si="1"/>
+        <v>23757.155999999999</v>
+      </c>
       <c r="AJ38" s="4">
         <f t="shared" si="1"/>
         <v>761603.0070000001</v>
@@ -11597,11 +11606,17 @@
       </c>
       <c r="AL38" s="4"/>
     </row>
-    <row r="41" spans="1:38" ht="33" customHeight="1">
+    <row r="41" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="AL1:AL2"/>
     <mergeCell ref="A3:A23"/>
     <mergeCell ref="A27:A29"/>
@@ -11611,12 +11626,3293 @@
     <mergeCell ref="C1:W1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AJ1:AK1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN41"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="AD40" sqref="A40:AD40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11" customWidth="1"/>
+    <col min="27" max="29" width="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.6640625" customWidth="1"/>
+    <col min="32" max="34" width="11" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11" customWidth="1"/>
+    <col min="36" max="38" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL2" s="11"/>
+    </row>
+    <row r="3" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4074.9209999999998</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="E3" s="4">
+        <v>31918.581121899999</v>
+      </c>
+      <c r="F3" s="4">
+        <v>47.099710000000002</v>
+      </c>
+      <c r="G3" s="4">
+        <v>10.343</v>
+      </c>
+      <c r="H3" s="4">
+        <v>331.601</v>
+      </c>
+      <c r="I3" s="4">
+        <v>21.111999999999998</v>
+      </c>
+      <c r="J3" s="4">
+        <v>8770.2880000000005</v>
+      </c>
+      <c r="K3" s="4">
+        <v>19.204805</v>
+      </c>
+      <c r="L3" s="4">
+        <v>36.036000000000001</v>
+      </c>
+      <c r="M3" s="4">
+        <v>8.7260000000000009</v>
+      </c>
+      <c r="N3" s="4">
+        <v>278.2914356</v>
+      </c>
+      <c r="O3" s="4">
+        <v>275.358</v>
+      </c>
+      <c r="P3" s="4">
+        <v>85.817999999999998</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>1072.614</v>
+      </c>
+      <c r="R3" s="4">
+        <v>199.88271040000001</v>
+      </c>
+      <c r="S3" s="4">
+        <v>2.0258780999999999</v>
+      </c>
+      <c r="T3" s="4">
+        <v>28.990290000000002</v>
+      </c>
+      <c r="U3" s="4">
+        <v>3.135195</v>
+      </c>
+      <c r="V3" s="4">
+        <v>135.94956440000001</v>
+      </c>
+      <c r="W3" s="4">
+        <v>5.1982895999999998</v>
+      </c>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4">
+        <v>17897.539000000001</v>
+      </c>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>384.49400000000003</v>
+      </c>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4">
+        <v>1080.9490000000001</v>
+      </c>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4">
+        <f>SUM(C3:AK3)</f>
+        <v>66692.468000000008</v>
+      </c>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+    </row>
+    <row r="4" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3603.7489999999998</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>505.74400000000003</v>
+      </c>
+      <c r="H4" s="4">
+        <v>207.971</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>2.1059999999999999</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.127</v>
+      </c>
+      <c r="N4" s="4">
+        <v>11.3386508</v>
+      </c>
+      <c r="O4" s="4">
+        <v>5.3140000000000001</v>
+      </c>
+      <c r="P4" s="4">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>8.6430000000000007</v>
+      </c>
+      <c r="R4" s="4">
+        <v>2.0779999999999998</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0.5723492</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0</v>
+      </c>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4">
+        <v>15.273999999999999</v>
+      </c>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>1989.682</v>
+      </c>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4">
+        <v>112.92700000000001</v>
+      </c>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4">
+        <f t="shared" ref="AL4:AL37" si="0">SUM(C4:AK4)</f>
+        <v>6468.3620000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="4">
+        <v>16665.222090499999</v>
+      </c>
+      <c r="D5" s="4">
+        <v>649.67905039999994</v>
+      </c>
+      <c r="E5" s="4">
+        <v>585018.29295630183</v>
+      </c>
+      <c r="F5" s="4">
+        <v>11139.5151555423</v>
+      </c>
+      <c r="G5" s="4">
+        <v>12077.2145552</v>
+      </c>
+      <c r="H5" s="4">
+        <v>94642.541098100002</v>
+      </c>
+      <c r="I5" s="4">
+        <v>33107.9062701</v>
+      </c>
+      <c r="J5" s="4">
+        <v>50880.877613500001</v>
+      </c>
+      <c r="K5" s="4">
+        <v>5520.2415999772202</v>
+      </c>
+      <c r="L5" s="4">
+        <v>3863.8709076999999</v>
+      </c>
+      <c r="M5" s="4">
+        <v>3685.2620125000003</v>
+      </c>
+      <c r="N5" s="4">
+        <v>30529.81978020152</v>
+      </c>
+      <c r="O5" s="4">
+        <v>8591.0899657000009</v>
+      </c>
+      <c r="P5" s="4">
+        <v>7197.7209143999999</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>31439.031238299998</v>
+      </c>
+      <c r="R5" s="4">
+        <v>22568.870746191122</v>
+      </c>
+      <c r="S5" s="4">
+        <v>7545.5986028981697</v>
+      </c>
+      <c r="T5" s="4">
+        <v>6856.4705561577002</v>
+      </c>
+      <c r="U5" s="4">
+        <v>1372.5210689227799</v>
+      </c>
+      <c r="V5" s="4">
+        <v>2221.6868611984796</v>
+      </c>
+      <c r="W5" s="4">
+        <v>290.97251540888004</v>
+      </c>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4">
+        <v>213777.45697209999</v>
+      </c>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>163215.9600017</v>
+      </c>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4">
+        <v>621764.05098910001</v>
+      </c>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4">
+        <f t="shared" si="0"/>
+        <v>1934621.8735221003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1430.1753589999998</v>
+      </c>
+      <c r="D6" s="4">
+        <v>34.859603999999997</v>
+      </c>
+      <c r="E6" s="4">
+        <v>41026.718442800993</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4383.3139448749998</v>
+      </c>
+      <c r="G6" s="4">
+        <v>706.03697099999999</v>
+      </c>
+      <c r="H6" s="4">
+        <v>5095.3529719999997</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1760.382147</v>
+      </c>
+      <c r="J6" s="4">
+        <v>8434.5410439999996</v>
+      </c>
+      <c r="K6" s="4">
+        <v>5032.5278710528009</v>
+      </c>
+      <c r="L6" s="4">
+        <v>585.25150099999996</v>
+      </c>
+      <c r="M6" s="4">
+        <v>381.41665799999998</v>
+      </c>
+      <c r="N6" s="4">
+        <v>3212.5403161988002</v>
+      </c>
+      <c r="O6" s="4">
+        <v>1027.8655940000001</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1199.9612120000002</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>7076.7905420000006</v>
+      </c>
+      <c r="R6" s="4">
+        <v>3075.0940004151998</v>
+      </c>
+      <c r="S6" s="4">
+        <v>644.48226219899993</v>
+      </c>
+      <c r="T6" s="4">
+        <v>2697.968680125</v>
+      </c>
+      <c r="U6" s="4">
+        <v>293.95227294720013</v>
+      </c>
+      <c r="V6" s="4">
+        <v>275.85522980119998</v>
+      </c>
+      <c r="W6" s="4">
+        <v>45.5753105848</v>
+      </c>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4">
+        <v>56432.395283999998</v>
+      </c>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>9516.1853579999988</v>
+      </c>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4">
+        <v>22379.124206</v>
+      </c>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4">
+        <f t="shared" si="0"/>
+        <v>176748.366783</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4">
+        <v>915.37900000000002</v>
+      </c>
+      <c r="D7" s="4">
+        <v>108.589</v>
+      </c>
+      <c r="E7" s="4">
+        <v>37989.514268600004</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2401.2916519999999</v>
+      </c>
+      <c r="G7" s="4">
+        <v>16182.189</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1052.788</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2613.645</v>
+      </c>
+      <c r="J7" s="4">
+        <v>5156.1679999999997</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1262.403337</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1434.3340000000001</v>
+      </c>
+      <c r="M7" s="4">
+        <v>3101.92</v>
+      </c>
+      <c r="N7" s="4">
+        <v>8317.4379411999998</v>
+      </c>
+      <c r="O7" s="4">
+        <v>1758.8409999999999</v>
+      </c>
+      <c r="P7" s="4">
+        <v>3970.3409999999999</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>5150.9690000000001</v>
+      </c>
+      <c r="R7" s="4">
+        <v>2653.2402648000002</v>
+      </c>
+      <c r="S7" s="4">
+        <v>192.5527314</v>
+      </c>
+      <c r="T7" s="4">
+        <v>1478.0163480000001</v>
+      </c>
+      <c r="U7" s="4">
+        <v>162.17466300000001</v>
+      </c>
+      <c r="V7" s="4">
+        <v>566.92205879999995</v>
+      </c>
+      <c r="W7" s="4">
+        <v>46.388735199999999</v>
+      </c>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4">
+        <v>22621.353999999999</v>
+      </c>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4">
+        <v>1009.391</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4">
+        <v>1108.335</v>
+      </c>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4">
+        <f t="shared" si="0"/>
+        <v>121254.18500000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="4">
+        <v>81.793000000000006</v>
+      </c>
+      <c r="D8" s="4">
+        <v>16.648</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1208.1629416000001</v>
+      </c>
+      <c r="F8" s="4">
+        <v>187.527907</v>
+      </c>
+      <c r="G8" s="4">
+        <v>539.93100000000004</v>
+      </c>
+      <c r="H8" s="4">
+        <v>87.266000000000005</v>
+      </c>
+      <c r="I8" s="4">
+        <v>216.84</v>
+      </c>
+      <c r="J8" s="4">
+        <v>337.71300000000002</v>
+      </c>
+      <c r="K8" s="4">
+        <v>231.3851392</v>
+      </c>
+      <c r="L8" s="4">
+        <v>92.283000000000001</v>
+      </c>
+      <c r="M8" s="4">
+        <v>9163.8279999999995</v>
+      </c>
+      <c r="N8" s="4">
+        <v>678.84524399999998</v>
+      </c>
+      <c r="O8" s="4">
+        <v>828.41600000000005</v>
+      </c>
+      <c r="P8" s="4">
+        <v>176.26599999999999</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>115.029</v>
+      </c>
+      <c r="R8" s="4">
+        <v>224.06989199999998</v>
+      </c>
+      <c r="S8" s="4">
+        <v>14.5810584</v>
+      </c>
+      <c r="T8" s="4">
+        <v>115.42509299999999</v>
+      </c>
+      <c r="U8" s="4">
+        <v>31.973860799999997</v>
+      </c>
+      <c r="V8" s="4">
+        <v>80.560756000000012</v>
+      </c>
+      <c r="W8" s="4">
+        <v>3.387108</v>
+      </c>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>260546.71799999999</v>
+      </c>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4">
+        <v>192.596</v>
+      </c>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4">
+        <f t="shared" si="0"/>
+        <v>275171.24600000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="4">
+        <v>737.41399999999999</v>
+      </c>
+      <c r="D9" s="4">
+        <v>620.40899999999999</v>
+      </c>
+      <c r="E9" s="4">
+        <v>46446.122702100001</v>
+      </c>
+      <c r="F9" s="4">
+        <v>12896.851381999999</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1751.2090000000001</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2400.4740000000002</v>
+      </c>
+      <c r="I9" s="4">
+        <v>10416.995999999999</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1132.614</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1746.7028152</v>
+      </c>
+      <c r="L9" s="4">
+        <v>844.43200000000002</v>
+      </c>
+      <c r="M9" s="4">
+        <v>565.51199999999994</v>
+      </c>
+      <c r="N9" s="4">
+        <v>4849.7428915999999</v>
+      </c>
+      <c r="O9" s="4">
+        <v>2375.6019999999999</v>
+      </c>
+      <c r="P9" s="4">
+        <v>463.315</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>593.58199999999999</v>
+      </c>
+      <c r="R9" s="4">
+        <v>1166.6808176</v>
+      </c>
+      <c r="S9" s="4">
+        <v>540.56729789999997</v>
+      </c>
+      <c r="T9" s="4">
+        <v>7938.1266180000002</v>
+      </c>
+      <c r="U9" s="4">
+        <v>840.84018480000009</v>
+      </c>
+      <c r="V9" s="4">
+        <v>740.79310840000005</v>
+      </c>
+      <c r="W9" s="4">
+        <v>69.573182400000007</v>
+      </c>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4">
+        <v>30364.851999999999</v>
+      </c>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>683.36199999999997</v>
+      </c>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4">
+        <v>34489.231</v>
+      </c>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4">
+        <f t="shared" si="0"/>
+        <v>164675.005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="4">
+        <v>577.346</v>
+      </c>
+      <c r="D10" s="4">
+        <v>96.834000000000003</v>
+      </c>
+      <c r="E10" s="4">
+        <v>11546.359639900002</v>
+      </c>
+      <c r="F10" s="4">
+        <v>7444.0061020000003</v>
+      </c>
+      <c r="G10" s="4">
+        <v>920.85500000000002</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1129.566</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2081.9609999999998</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1837.1410000000001</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1883.5396544</v>
+      </c>
+      <c r="L10" s="4">
+        <v>4635.2430000000004</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1664.2449999999999</v>
+      </c>
+      <c r="N10" s="4">
+        <v>10853.474323599999</v>
+      </c>
+      <c r="O10" s="4">
+        <v>2781.7339999999999</v>
+      </c>
+      <c r="P10" s="4">
+        <v>7971.7460000000001</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>5893.93</v>
+      </c>
+      <c r="R10" s="4">
+        <v>4972.7817215999994</v>
+      </c>
+      <c r="S10" s="4">
+        <v>223.27136009999998</v>
+      </c>
+      <c r="T10" s="4">
+        <v>4581.8518979999999</v>
+      </c>
+      <c r="U10" s="4">
+        <v>460.92634559999999</v>
+      </c>
+      <c r="V10" s="4">
+        <v>984.08867639999994</v>
+      </c>
+      <c r="W10" s="4">
+        <v>823.3062784</v>
+      </c>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4">
+        <v>103692.954</v>
+      </c>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4">
+        <v>11206.638000000001</v>
+      </c>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4">
+        <f t="shared" si="0"/>
+        <v>188263.79900000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="4">
+        <v>192.8588944</v>
+      </c>
+      <c r="D11" s="4">
+        <v>15.4031438</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3859.5548882903399</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5783.9950174407995</v>
+      </c>
+      <c r="G11" s="4">
+        <v>350.48432760000003</v>
+      </c>
+      <c r="H11" s="4">
+        <v>391.0806288</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1434.4733881999998</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1283.3645408</v>
+      </c>
+      <c r="K11" s="4">
+        <v>10588.61581808476</v>
+      </c>
+      <c r="L11" s="4">
+        <v>6586.3871867999997</v>
+      </c>
+      <c r="M11" s="4">
+        <v>798.94643240000005</v>
+      </c>
+      <c r="N11" s="4">
+        <v>14772.895082049601</v>
+      </c>
+      <c r="O11" s="4">
+        <v>1855.5883322</v>
+      </c>
+      <c r="P11" s="4">
+        <v>2495.0085743999998</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>531.04255520000004</v>
+      </c>
+      <c r="R11" s="4">
+        <v>2230.7107803209601</v>
+      </c>
+      <c r="S11" s="4">
+        <v>73.513282509660002</v>
+      </c>
+      <c r="T11" s="4">
+        <v>3560.1003257592001</v>
+      </c>
+      <c r="U11" s="4">
+        <v>1844.7920061152402</v>
+      </c>
+      <c r="V11" s="4">
+        <v>514.82698155039998</v>
+      </c>
+      <c r="W11" s="4">
+        <v>154.34374187904001</v>
+      </c>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4">
+        <v>32987.4141036</v>
+      </c>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>19334.0520894</v>
+      </c>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4">
+        <v>8162.4795921999994</v>
+      </c>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4">
+        <f t="shared" si="0"/>
+        <v>119801.93171380002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1215.538</v>
+      </c>
+      <c r="D12" s="4">
+        <v>189.65899999999999</v>
+      </c>
+      <c r="E12" s="4">
+        <v>18337.878833299997</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4949.5580449999998</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2030.6369999999999</v>
+      </c>
+      <c r="H12" s="4">
+        <v>5149.8609999999999</v>
+      </c>
+      <c r="I12" s="4">
+        <v>2406.9279999999999</v>
+      </c>
+      <c r="J12" s="4">
+        <v>3136.0410000000002</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1403.0401425999999</v>
+      </c>
+      <c r="L12" s="4">
+        <v>26993.027999999998</v>
+      </c>
+      <c r="M12" s="4">
+        <v>19547.135999999999</v>
+      </c>
+      <c r="N12" s="4">
+        <v>5087.5836840000002</v>
+      </c>
+      <c r="O12" s="4">
+        <v>4822.7690000000002</v>
+      </c>
+      <c r="P12" s="4">
+        <v>1667.7339999999999</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>3649.5569999999998</v>
+      </c>
+      <c r="R12" s="4">
+        <v>1953.5160736</v>
+      </c>
+      <c r="S12" s="4">
+        <v>297.99416669999999</v>
+      </c>
+      <c r="T12" s="4">
+        <v>3046.4969550000001</v>
+      </c>
+      <c r="U12" s="4">
+        <v>345.39685739999999</v>
+      </c>
+      <c r="V12" s="4">
+        <v>254.49931599999999</v>
+      </c>
+      <c r="W12" s="4">
+        <v>127.94292639999999</v>
+      </c>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4">
+        <v>74115.437999999995</v>
+      </c>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4">
+        <v>4694.4139999999998</v>
+      </c>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4">
+        <f t="shared" si="0"/>
+        <v>185422.64699999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="4">
+        <v>66.938999999999993</v>
+      </c>
+      <c r="D13" s="4">
+        <v>7.7779999999999996</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3765.0873956</v>
+      </c>
+      <c r="F13" s="4">
+        <v>9525.6053000000011</v>
+      </c>
+      <c r="G13" s="4">
+        <v>564.01800000000003</v>
+      </c>
+      <c r="H13" s="4">
+        <v>781.15</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1526.3050000000001</v>
+      </c>
+      <c r="J13" s="4">
+        <v>11046.802</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1255.8166237999999</v>
+      </c>
+      <c r="L13" s="4">
+        <v>7286.28</v>
+      </c>
+      <c r="M13" s="4">
+        <v>7981.9889999999996</v>
+      </c>
+      <c r="N13" s="4">
+        <v>7594.8740316000003</v>
+      </c>
+      <c r="O13" s="4">
+        <v>663.04700000000003</v>
+      </c>
+      <c r="P13" s="4">
+        <v>2240.3989999999999</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>3963.6190000000001</v>
+      </c>
+      <c r="R13" s="4">
+        <v>2131.8916151999997</v>
+      </c>
+      <c r="S13" s="4">
+        <v>72.2356044</v>
+      </c>
+      <c r="T13" s="4">
+        <v>5863.0947000000006</v>
+      </c>
+      <c r="U13" s="4">
+        <v>397.69237620000001</v>
+      </c>
+      <c r="V13" s="4">
+        <v>417.46296840000002</v>
+      </c>
+      <c r="W13" s="4">
+        <v>185.7013848</v>
+      </c>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4">
+        <v>131970.416</v>
+      </c>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>31020.904999999999</v>
+      </c>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4">
+        <v>366.53699999999998</v>
+      </c>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4">
+        <f t="shared" si="0"/>
+        <v>230695.64600000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1194.6322560000001</v>
+      </c>
+      <c r="D14" s="4">
+        <v>372.31874719999996</v>
+      </c>
+      <c r="E14" s="4">
+        <v>53346.458361873236</v>
+      </c>
+      <c r="F14" s="4">
+        <v>11948.684433034799</v>
+      </c>
+      <c r="G14" s="4">
+        <v>4122.7771855999999</v>
+      </c>
+      <c r="H14" s="4">
+        <v>19103.287004000002</v>
+      </c>
+      <c r="I14" s="4">
+        <v>8663.9889516000003</v>
+      </c>
+      <c r="J14" s="4">
+        <v>4560.5194072000004</v>
+      </c>
+      <c r="K14" s="4">
+        <v>9195.8555824883188</v>
+      </c>
+      <c r="L14" s="4">
+        <v>11804.1667908</v>
+      </c>
+      <c r="M14" s="4">
+        <v>11519.9387532</v>
+      </c>
+      <c r="N14" s="4">
+        <v>25838.06018970496</v>
+      </c>
+      <c r="O14" s="4">
+        <v>4823.7654276000003</v>
+      </c>
+      <c r="P14" s="4">
+        <v>4404.7740159999994</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>2810.4158887999997</v>
+      </c>
+      <c r="R14" s="4">
+        <v>4235.9067243443196</v>
+      </c>
+      <c r="S14" s="4">
+        <v>445.57611212675999</v>
+      </c>
+      <c r="T14" s="4">
+        <v>7354.5214361651997</v>
+      </c>
+      <c r="U14" s="4">
+        <v>1564.3385039116802</v>
+      </c>
+      <c r="V14" s="4">
+        <v>1747.7323046950401</v>
+      </c>
+      <c r="W14" s="4">
+        <v>167.77737765568</v>
+      </c>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4">
+        <v>9510.7369512000005</v>
+      </c>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>78578.603039599999</v>
+      </c>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4">
+        <v>27312.970383600001</v>
+      </c>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4">
+        <f t="shared" si="0"/>
+        <v>304627.80582840001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>24.742999999999999</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
+        <v>2823.0039999999999</v>
+      </c>
+      <c r="S15" s="4">
+        <v>0</v>
+      </c>
+      <c r="T15" s="4">
+        <v>0</v>
+      </c>
+      <c r="U15" s="4">
+        <v>0</v>
+      </c>
+      <c r="V15" s="4">
+        <v>0</v>
+      </c>
+      <c r="W15" s="4">
+        <v>0</v>
+      </c>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4">
+        <v>2343.1669999999999</v>
+      </c>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4">
+        <v>154168.83600000001</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4">
+        <v>34.634</v>
+      </c>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4">
+        <f t="shared" si="0"/>
+        <v>159394.38399999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="4">
+        <v>3.448</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="E16" s="4">
+        <v>625.93615480000005</v>
+      </c>
+      <c r="F16" s="4">
+        <v>347.66073100000006</v>
+      </c>
+      <c r="G16" s="4">
+        <v>38.337000000000003</v>
+      </c>
+      <c r="H16" s="4">
+        <v>51.823999999999998</v>
+      </c>
+      <c r="I16" s="4">
+        <v>51.536000000000001</v>
+      </c>
+      <c r="J16" s="4">
+        <v>76.668000000000006</v>
+      </c>
+      <c r="K16" s="4">
+        <v>77.490231399999999</v>
+      </c>
+      <c r="L16" s="4">
+        <v>275.61900000000003</v>
+      </c>
+      <c r="M16" s="4">
+        <v>87.917000000000002</v>
+      </c>
+      <c r="N16" s="4">
+        <v>290.11491440000003</v>
+      </c>
+      <c r="O16" s="4">
+        <v>5.4930000000000003</v>
+      </c>
+      <c r="P16" s="4">
+        <v>45.826000000000001</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>15.359</v>
+      </c>
+      <c r="R16" s="4">
+        <v>75.4969064</v>
+      </c>
+      <c r="S16" s="4">
+        <v>6.9688451999999996</v>
+      </c>
+      <c r="T16" s="4">
+        <v>213.988269</v>
+      </c>
+      <c r="U16" s="4">
+        <v>9.9547685999999995</v>
+      </c>
+      <c r="V16" s="4">
+        <v>21.223085599999997</v>
+      </c>
+      <c r="W16" s="4">
+        <v>7.1870935999999999</v>
+      </c>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4">
+        <v>59211.775000000001</v>
+      </c>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4">
+        <v>70597.013000000006</v>
+      </c>
+      <c r="AD16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4">
+        <v>229.09</v>
+      </c>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4">
+        <f t="shared" si="0"/>
+        <v>132366.633</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="4">
+        <v>133.06299999999999</v>
+      </c>
+      <c r="D17" s="4">
+        <v>12.196999999999999</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1693.6408796000001</v>
+      </c>
+      <c r="F17" s="4">
+        <v>674.650576</v>
+      </c>
+      <c r="G17" s="4">
+        <v>162.483</v>
+      </c>
+      <c r="H17" s="4">
+        <v>432.90600000000001</v>
+      </c>
+      <c r="I17" s="4">
+        <v>204.63800000000001</v>
+      </c>
+      <c r="J17" s="4">
+        <v>630.59199999999998</v>
+      </c>
+      <c r="K17" s="4">
+        <v>179.65007420000001</v>
+      </c>
+      <c r="L17" s="4">
+        <v>538.45600000000002</v>
+      </c>
+      <c r="M17" s="4">
+        <v>170.917</v>
+      </c>
+      <c r="N17" s="4">
+        <v>805.41984479999996</v>
+      </c>
+      <c r="O17" s="4">
+        <v>101.077</v>
+      </c>
+      <c r="P17" s="4">
+        <v>264.18099999999998</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>803.93299999999999</v>
+      </c>
+      <c r="R17" s="4">
+        <v>279.41703120000005</v>
+      </c>
+      <c r="S17" s="4">
+        <v>22.199120399999998</v>
+      </c>
+      <c r="T17" s="4">
+        <v>415.253424</v>
+      </c>
+      <c r="U17" s="4">
+        <v>43.896925799999998</v>
+      </c>
+      <c r="V17" s="4">
+        <v>65.062155200000007</v>
+      </c>
+      <c r="W17" s="4">
+        <v>13.3509688</v>
+      </c>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4">
+        <v>58562.298000000003</v>
+      </c>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4">
+        <v>100693.954</v>
+      </c>
+      <c r="AD17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4">
+        <v>847.43</v>
+      </c>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4">
+        <f t="shared" si="0"/>
+        <v>167750.666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="4">
+        <v>490.48422960000005</v>
+      </c>
+      <c r="D18" s="4">
+        <v>57.845850400000003</v>
+      </c>
+      <c r="E18" s="4">
+        <v>5522.6325880512804</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1277.5897573712</v>
+      </c>
+      <c r="G18" s="4">
+        <v>484.50808159999997</v>
+      </c>
+      <c r="H18" s="4">
+        <v>780.87810719999993</v>
+      </c>
+      <c r="I18" s="4">
+        <v>3419.5245328000001</v>
+      </c>
+      <c r="J18" s="4">
+        <v>774.08927040000003</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1606.1258126156799</v>
+      </c>
+      <c r="L18" s="4">
+        <v>1046.7970559999999</v>
+      </c>
+      <c r="M18" s="4">
+        <v>782.16495520000001</v>
+      </c>
+      <c r="N18" s="4">
+        <v>3577.9124979695998</v>
+      </c>
+      <c r="O18" s="4">
+        <v>237.7127304</v>
+      </c>
+      <c r="P18" s="4">
+        <v>1195.7336872000001</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>1042.2543952000001</v>
+      </c>
+      <c r="R18" s="4">
+        <v>2649.4047519027199</v>
+      </c>
+      <c r="S18" s="4">
+        <v>76.944455148719996</v>
+      </c>
+      <c r="T18" s="4">
+        <v>786.36784742880002</v>
+      </c>
+      <c r="U18" s="4">
+        <v>283.43870658432013</v>
+      </c>
+      <c r="V18" s="4">
+        <v>182.40537483039998</v>
+      </c>
+      <c r="W18" s="4">
+        <v>98.437080897279998</v>
+      </c>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4">
+        <v>84307.258000000002</v>
+      </c>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4">
+        <v>2193.9859999999999</v>
+      </c>
+      <c r="AD18" s="4">
+        <v>674.22500000000002</v>
+      </c>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4">
+        <v>2093.6586407999998</v>
+      </c>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4">
+        <f t="shared" si="0"/>
+        <v>115642.37940960001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="4">
+        <v>43.240909500000001</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2.4389495999999999</v>
+      </c>
+      <c r="E19" s="4">
+        <v>4809.7858478981698</v>
+      </c>
+      <c r="F19" s="4">
+        <v>403.42785745769999</v>
+      </c>
+      <c r="G19" s="4">
+        <v>368.74344480000002</v>
+      </c>
+      <c r="H19" s="4">
+        <v>487.66490190000002</v>
+      </c>
+      <c r="I19" s="4">
+        <v>333.7537299</v>
+      </c>
+      <c r="J19" s="4">
+        <v>125.9063865</v>
+      </c>
+      <c r="K19" s="4">
+        <v>589.32858982278003</v>
+      </c>
+      <c r="L19" s="4">
+        <v>1097.4490922999998</v>
+      </c>
+      <c r="M19" s="4">
+        <v>92.209987499999997</v>
+      </c>
+      <c r="N19" s="4">
+        <v>2495.8551901984802</v>
+      </c>
+      <c r="O19" s="4">
+        <v>476.90603429999999</v>
+      </c>
+      <c r="P19" s="4">
+        <v>554.97508559999994</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>514.72876169999995</v>
+      </c>
+      <c r="R19" s="4">
+        <v>621.62935620887993</v>
+      </c>
+      <c r="S19" s="4">
+        <v>1267.6495929018301</v>
+      </c>
+      <c r="T19" s="4">
+        <v>248.31343084229999</v>
+      </c>
+      <c r="U19" s="4">
+        <v>248.51274127721999</v>
+      </c>
+      <c r="V19" s="4">
+        <v>683.35216840151998</v>
+      </c>
+      <c r="W19" s="4">
+        <v>50.064382191119996</v>
+      </c>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4">
+        <v>755.73002789999998</v>
+      </c>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="4">
+        <v>6855.9289983000008</v>
+      </c>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4">
+        <v>5672.7650109000006</v>
+      </c>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4">
+        <f t="shared" si="0"/>
+        <v>28800.360477899994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="4">
+        <v>880.28564100000006</v>
+      </c>
+      <c r="D20" s="4">
+        <v>21.456396000000002</v>
+      </c>
+      <c r="E20" s="4">
+        <v>25252.309736199</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2697.968680125</v>
+      </c>
+      <c r="G20" s="4">
+        <v>434.57202899999999</v>
+      </c>
+      <c r="H20" s="4">
+        <v>3136.2350280000001</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1083.530853</v>
+      </c>
+      <c r="J20" s="4">
+        <v>5191.5349560000004</v>
+      </c>
+      <c r="K20" s="4">
+        <v>3097.5656201471998</v>
+      </c>
+      <c r="L20" s="4">
+        <v>360.22749900000002</v>
+      </c>
+      <c r="M20" s="4">
+        <v>234.765342</v>
+      </c>
+      <c r="N20" s="4">
+        <v>1977.3471090011999</v>
+      </c>
+      <c r="O20" s="4">
+        <v>632.66040599999997</v>
+      </c>
+      <c r="P20" s="4">
+        <v>738.58678800000007</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>4355.8274579999998</v>
+      </c>
+      <c r="R20" s="4">
+        <v>1892.7476803848001</v>
+      </c>
+      <c r="S20" s="4">
+        <v>396.68455880099998</v>
+      </c>
+      <c r="T20" s="4">
+        <v>1660.623694875</v>
+      </c>
+      <c r="U20" s="4">
+        <v>180.9302358528</v>
+      </c>
+      <c r="V20" s="4">
+        <v>169.79134499879999</v>
+      </c>
+      <c r="W20" s="4">
+        <v>28.052008615200002</v>
+      </c>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4">
+        <v>34734.640716000002</v>
+      </c>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="4">
+        <v>5857.2966419999993</v>
+      </c>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4">
+        <v>13774.549794</v>
+      </c>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4">
+        <f t="shared" si="0"/>
+        <v>108790.19021700001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="4">
+        <v>22.605105599999998</v>
+      </c>
+      <c r="D21" s="4">
+        <v>3.9398562000000004</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1305.0871701096598</v>
+      </c>
+      <c r="F21" s="4">
+        <v>508.23283255920001</v>
+      </c>
+      <c r="G21" s="4">
+        <v>122.4716724</v>
+      </c>
+      <c r="H21" s="4">
+        <v>106.65537119999999</v>
+      </c>
+      <c r="I21" s="4">
+        <v>362.55861179999999</v>
+      </c>
+      <c r="J21" s="4">
+        <v>121.2194592</v>
+      </c>
+      <c r="K21" s="4">
+        <v>2481.7685253152399</v>
+      </c>
+      <c r="L21" s="4">
+        <v>2466.5178132000001</v>
+      </c>
+      <c r="M21" s="4">
+        <v>178.3205676</v>
+      </c>
+      <c r="N21" s="4">
+        <v>4129.9242579503998</v>
+      </c>
+      <c r="O21" s="4">
+        <v>691.17366780000009</v>
+      </c>
+      <c r="P21" s="4">
+        <v>662.97742559999995</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>186.90144480000001</v>
+      </c>
+      <c r="R21" s="4">
+        <v>351.11221727904001</v>
+      </c>
+      <c r="S21" s="4">
+        <v>28.881659090339998</v>
+      </c>
+      <c r="T21" s="4">
+        <v>312.82182424079997</v>
+      </c>
+      <c r="U21" s="4">
+        <v>1009.09465048476</v>
+      </c>
+      <c r="V21" s="4">
+        <v>185.41967844960001</v>
+      </c>
+      <c r="W21" s="4">
+        <v>31.227260520960002</v>
+      </c>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4">
+        <v>2325.0428963999998</v>
+      </c>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="4">
+        <v>15446.0279106</v>
+      </c>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4">
+        <v>4249.5384077999997</v>
+      </c>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4">
+        <f t="shared" si="0"/>
+        <v>37289.520286200001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="4">
+        <v>30.508744</v>
+      </c>
+      <c r="D22" s="4">
+        <v>18.442252799999999</v>
+      </c>
+      <c r="E22" s="4">
+        <v>5284.8780237267583</v>
+      </c>
+      <c r="F22" s="4">
+        <v>141.97392096519999</v>
+      </c>
+      <c r="G22" s="4">
+        <v>431.61781439999999</v>
+      </c>
+      <c r="H22" s="4">
+        <v>8155.3009959999999</v>
+      </c>
+      <c r="I22" s="4">
+        <v>104.58204840000001</v>
+      </c>
+      <c r="J22" s="4">
+        <v>174.48559280000001</v>
+      </c>
+      <c r="K22" s="4">
+        <v>441.10237591167999</v>
+      </c>
+      <c r="L22" s="4">
+        <v>109.1102092</v>
+      </c>
+      <c r="M22" s="4">
+        <v>122.48024679999999</v>
+      </c>
+      <c r="N22" s="4">
+        <v>1244.7882634950399</v>
+      </c>
+      <c r="O22" s="4">
+        <v>417.51757240000001</v>
+      </c>
+      <c r="P22" s="4">
+        <v>244.75498400000001</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>184.34211120000001</v>
+      </c>
+      <c r="R22" s="4">
+        <v>34.284189255680005</v>
+      </c>
+      <c r="S22" s="4">
+        <v>50.039502273240004</v>
+      </c>
+      <c r="T22" s="4">
+        <v>87.386209834799999</v>
+      </c>
+      <c r="U22" s="4">
+        <v>67.719537688320003</v>
+      </c>
+      <c r="V22" s="4">
+        <v>469.92824210496002</v>
+      </c>
+      <c r="W22" s="4">
+        <v>1.9257087443200001</v>
+      </c>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4">
+        <v>308.03704879999998</v>
+      </c>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="4">
+        <v>12015.987960400002</v>
+      </c>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4">
+        <v>1830.8726164</v>
+      </c>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4">
+        <f t="shared" si="0"/>
+        <v>31972.066171599996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="4">
+        <v>28.176770400000002</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2.9071496000000003</v>
+      </c>
+      <c r="E23" s="4">
+        <v>807.35787384872003</v>
+      </c>
+      <c r="F23" s="4">
+        <v>257.42748862880001</v>
+      </c>
+      <c r="G23" s="4">
+        <v>52.632918400000001</v>
+      </c>
+      <c r="H23" s="4">
+        <v>89.1758928</v>
+      </c>
+      <c r="I23" s="4">
+        <v>253.97546720000003</v>
+      </c>
+      <c r="J23" s="4">
+        <v>114.13372960000001</v>
+      </c>
+      <c r="K23" s="4">
+        <v>97.800280784319995</v>
+      </c>
+      <c r="L23" s="4">
+        <v>471.95594400000004</v>
+      </c>
+      <c r="M23" s="4">
+        <v>65.07404480000001</v>
+      </c>
+      <c r="N23" s="4">
+        <v>640.56296603040005</v>
+      </c>
+      <c r="O23" s="4">
+        <v>126.34526959999999</v>
+      </c>
+      <c r="P23" s="4">
+        <v>497.58931280000002</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>94.315604800000003</v>
+      </c>
+      <c r="R23" s="4">
+        <v>121.12645289728</v>
+      </c>
+      <c r="S23" s="4">
+        <v>5.9410829512800003</v>
+      </c>
+      <c r="T23" s="4">
+        <v>158.44890657120001</v>
+      </c>
+      <c r="U23" s="4">
+        <v>26.744200015679997</v>
+      </c>
+      <c r="V23" s="4">
+        <v>49.036161169600007</v>
+      </c>
+      <c r="W23" s="4">
+        <v>19.118714302720001</v>
+      </c>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4">
+        <v>0.21635919999999997</v>
+      </c>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4">
+        <f t="shared" si="0"/>
+        <v>3980.0625904000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4">
+        <v>6547.0230000000001</v>
+      </c>
+      <c r="D24" s="4">
+        <v>865.25400000000002</v>
+      </c>
+      <c r="E24" s="4">
+        <v>192748.72173059999</v>
+      </c>
+      <c r="F24" s="4">
+        <v>49979.141392999998</v>
+      </c>
+      <c r="G24" s="4">
+        <v>12814.433000000001</v>
+      </c>
+      <c r="H24" s="4">
+        <v>86514.203999999998</v>
+      </c>
+      <c r="I24" s="4">
+        <v>32944.266000000003</v>
+      </c>
+      <c r="J24" s="4">
+        <v>34557.43</v>
+      </c>
+      <c r="K24" s="4">
+        <v>23952.216407</v>
+      </c>
+      <c r="L24" s="4">
+        <v>44478.012999999999</v>
+      </c>
+      <c r="M24" s="4">
+        <v>16034.514999999999</v>
+      </c>
+      <c r="N24" s="4">
+        <v>107585.29276160001</v>
+      </c>
+      <c r="O24" s="4">
+        <v>76987.937000000005</v>
+      </c>
+      <c r="P24" s="4">
+        <v>78542.589000000007</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>64861.093999999997</v>
+      </c>
+      <c r="R24" s="4">
+        <v>27180.7150936</v>
+      </c>
+      <c r="S24" s="4">
+        <v>3881.3762694000002</v>
+      </c>
+      <c r="T24" s="4">
+        <v>30762.605607000001</v>
+      </c>
+      <c r="U24" s="4">
+        <v>10553.842593000001</v>
+      </c>
+      <c r="V24" s="4">
+        <v>10545.8472384</v>
+      </c>
+      <c r="W24" s="4">
+        <v>1072.2469063999999</v>
+      </c>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="4">
+        <f>SUM(C24:AK24)</f>
+        <v>913408.76400000008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4">
+        <v>24582.852999999999</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1185.5809999999999</v>
+      </c>
+      <c r="E25" s="4">
+        <v>273674.4123729</v>
+      </c>
+      <c r="F25" s="4">
+        <v>35880.453848000005</v>
+      </c>
+      <c r="G25" s="4">
+        <v>24118.968999999997</v>
+      </c>
+      <c r="H25" s="4">
+        <v>16010.707</v>
+      </c>
+      <c r="I25" s="4">
+        <v>27171.904000000002</v>
+      </c>
+      <c r="J25" s="4">
+        <v>13954.298999999999</v>
+      </c>
+      <c r="K25" s="4">
+        <v>34616.607305799997</v>
+      </c>
+      <c r="L25" s="4">
+        <v>56970.512999999999</v>
+      </c>
+      <c r="M25" s="4">
+        <v>119791.432</v>
+      </c>
+      <c r="N25" s="4">
+        <v>52901.981525199997</v>
+      </c>
+      <c r="O25" s="4">
+        <v>44826.656999999999</v>
+      </c>
+      <c r="P25" s="4">
+        <v>13838.985000000001</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>23973.508999999998</v>
+      </c>
+      <c r="R25" s="4">
+        <v>16533.329951199998</v>
+      </c>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="4">
+        <f>SUM(C25:AK25)</f>
+        <v>780032.19400309992</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14"/>
+      <c r="B26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4">
+        <v>3704.7476271</v>
+      </c>
+      <c r="T26" s="4">
+        <v>22084.738151999998</v>
+      </c>
+      <c r="U26" s="4">
+        <v>13140.2856942</v>
+      </c>
+      <c r="V26" s="4">
+        <v>7041.4374747999991</v>
+      </c>
+      <c r="W26" s="4">
+        <v>669.60904879999998</v>
+      </c>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="4"/>
+      <c r="AL26" s="4">
+        <f>SUM(C26:AK26)</f>
+        <v>46640.817996899998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4">
+        <f>SUM(C24:W24)</f>
+        <v>913408.76400000008</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>261977.7</v>
+      </c>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="4">
+        <f t="shared" si="0"/>
+        <v>1175386.4640000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4">
+        <v>518054.49400310015</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>46640.817996899998</v>
+      </c>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="4">
+        <f t="shared" si="0"/>
+        <v>564695.31200000015</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="6">
+        <v>98638.134000000136</v>
+      </c>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="6">
+        <v>10713.599000000046</v>
+      </c>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="4">
+        <v>160659.128</v>
+      </c>
+      <c r="AG29" s="4">
+        <v>72174.278000000006</v>
+      </c>
+      <c r="AH29" s="4">
+        <v>96355.684999999823</v>
+      </c>
+      <c r="AI29" s="4">
+        <v>23757.155999999999</v>
+      </c>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="4">
+        <f t="shared" si="0"/>
+        <v>462297.98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4">
+        <v>143097</v>
+      </c>
+      <c r="AB30" s="4">
+        <v>353707.65848870005</v>
+      </c>
+      <c r="AC30" s="4">
+        <v>133634.79999999999</v>
+      </c>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="4"/>
+      <c r="AL30" s="4">
+        <f t="shared" si="0"/>
+        <v>630439.45848869998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4">
+        <v>40175.241511300002</v>
+      </c>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4"/>
+      <c r="AH31" s="4"/>
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="4"/>
+      <c r="AK31" s="4"/>
+      <c r="AL31" s="4">
+        <f t="shared" si="0"/>
+        <v>40175.241511300002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="6">
+        <v>-5348.0299999999988</v>
+      </c>
+      <c r="D32" s="6">
+        <v>-144511.804</v>
+      </c>
+      <c r="E32" s="6">
+        <v>140251.24995610025</v>
+      </c>
+      <c r="F32" s="6">
+        <v>11493.956590999995</v>
+      </c>
+      <c r="G32" s="6">
+        <v>42286.777000000002</v>
+      </c>
+      <c r="H32" s="6">
+        <v>28997.324000000051</v>
+      </c>
+      <c r="I32" s="6">
+        <v>9952.8429999999935</v>
+      </c>
+      <c r="J32" s="6">
+        <v>17144.445999999996</v>
+      </c>
+      <c r="K32" s="6">
+        <v>8234.9001144000358</v>
+      </c>
+      <c r="L32" s="6">
+        <v>9481.4509999999718</v>
+      </c>
+      <c r="M32" s="6">
+        <v>32963.459000000003</v>
+      </c>
+      <c r="N32" s="6">
+        <v>-20122.886003599968</v>
+      </c>
+      <c r="O32" s="6">
+        <v>4424.1549999999988</v>
+      </c>
+      <c r="P32" s="6">
+        <v>1591.7249999999913</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>9051.3360000000102</v>
+      </c>
+      <c r="R32" s="6">
+        <v>10893.087884799999</v>
+      </c>
+      <c r="S32" s="6">
+        <v>-1388.9079560999999</v>
+      </c>
+      <c r="T32" s="6">
+        <v>7074.6324090000126</v>
+      </c>
+      <c r="U32" s="6">
+        <v>1151.6948856000017</v>
+      </c>
+      <c r="V32" s="6">
+        <v>-2956.682996399999</v>
+      </c>
+      <c r="W32" s="6">
+        <v>-5.5988847999992686</v>
+      </c>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="4"/>
+      <c r="AK32" s="4"/>
+      <c r="AL32" s="4">
+        <f t="shared" si="0"/>
+        <v>160659.12800000035</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13"/>
+      <c r="B33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4">
+        <v>72174.278000000006</v>
+      </c>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4"/>
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="4"/>
+      <c r="AL33" s="4">
+        <f t="shared" si="0"/>
+        <v>72174.278000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13"/>
+      <c r="B34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="8">
+        <v>96355.684999999823</v>
+      </c>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="4"/>
+      <c r="AL34" s="4">
+        <f t="shared" si="0"/>
+        <v>96355.684999999823</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="14"/>
+      <c r="B35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="4">
+        <v>543.61400000000003</v>
+      </c>
+      <c r="D35" s="4">
+        <v>6069.3789999999999</v>
+      </c>
+      <c r="E35" s="4">
+        <v>16859.252943799998</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1.0676E-2</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0</v>
+      </c>
+      <c r="M35" s="4">
+        <v>0</v>
+      </c>
+      <c r="N35" s="4">
+        <v>0</v>
+      </c>
+      <c r="O35" s="4">
+        <v>0</v>
+      </c>
+      <c r="P35" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>0</v>
+      </c>
+      <c r="R35" s="4">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="S35" s="4">
+        <v>284.06305620000001</v>
+      </c>
+      <c r="T35" s="4">
+        <v>0</v>
+      </c>
+      <c r="U35" s="4">
+        <v>9.3240000000000007E-3</v>
+      </c>
+      <c r="V35" s="4">
+        <v>0</v>
+      </c>
+      <c r="W35" s="4">
+        <v>0</v>
+      </c>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="4">
+        <f t="shared" si="0"/>
+        <v>23757.156000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4">
+        <v>761603.0070000001</v>
+      </c>
+      <c r="AL36" s="4">
+        <f t="shared" si="0"/>
+        <v>761603.0070000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="9">
+        <v>11582.416999999999</v>
+      </c>
+      <c r="D37" s="9">
+        <v>140621.35</v>
+      </c>
+      <c r="E37" s="9">
+        <v>427720.12769220001</v>
+      </c>
+      <c r="F37" s="9">
+        <v>2378.4344580000002</v>
+      </c>
+      <c r="G37" s="9">
+        <v>177.20099999999999</v>
+      </c>
+      <c r="H37" s="9">
+        <v>35.432000000000002</v>
+      </c>
+      <c r="I37" s="9">
+        <v>24516.612000000001</v>
+      </c>
+      <c r="J37" s="9">
+        <v>18820.819</v>
+      </c>
+      <c r="K37" s="9">
+        <v>6288.0323116</v>
+      </c>
+      <c r="L37" s="9">
+        <v>3965.2249999999999</v>
+      </c>
+      <c r="M37" s="9">
+        <v>1753.3440000000001</v>
+      </c>
+      <c r="N37" s="9">
+        <v>37076.588930799997</v>
+      </c>
+      <c r="O37" s="9">
+        <v>657.35900000000004</v>
+      </c>
+      <c r="P37" s="9">
+        <v>2315.5300000000002</v>
+      </c>
+      <c r="Q37" s="9">
+        <v>361.84199999999998</v>
+      </c>
+      <c r="R37" s="9">
+        <v>6771.4735480000008</v>
+      </c>
+      <c r="S37" s="9">
+        <v>10411.374307800001</v>
+      </c>
+      <c r="T37" s="9">
+        <v>1463.9475419999999</v>
+      </c>
+      <c r="U37" s="9">
+        <v>3255.6526884</v>
+      </c>
+      <c r="V37" s="9">
+        <v>7574.2960691999997</v>
+      </c>
+      <c r="W37" s="9">
+        <v>74.275452000000001</v>
+      </c>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="8">
+        <v>53781.672999999952</v>
+      </c>
+      <c r="AE37" s="6"/>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="4"/>
+      <c r="AH37" s="4"/>
+      <c r="AI37" s="4"/>
+      <c r="AJ37" s="4"/>
+      <c r="AK37" s="4"/>
+      <c r="AL37" s="4">
+        <f t="shared" si="0"/>
+        <v>761603.00699999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="4">
+        <f>SUM(C3:C37)</f>
+        <v>66692.468000000008</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" ref="D38:AK38" si="1">SUM(D3:D37)</f>
+        <v>6468.3619999999937</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="1"/>
+        <v>1934621.8735221003</v>
+      </c>
+      <c r="F38" s="4">
+        <f t="shared" si="1"/>
+        <v>176748.366783</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="1"/>
+        <v>121254.18500000001</v>
+      </c>
+      <c r="H38" s="4">
+        <f t="shared" si="1"/>
+        <v>275171.24599999998</v>
+      </c>
+      <c r="I38" s="4">
+        <f t="shared" si="1"/>
+        <v>164675.005</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" si="1"/>
+        <v>188263.79900000003</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="1"/>
+        <v>119801.93171380003</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" si="1"/>
+        <v>185422.64699999997</v>
+      </c>
+      <c r="M38" s="4">
+        <f t="shared" si="1"/>
+        <v>230695.64600000001</v>
+      </c>
+      <c r="N38" s="4">
+        <f t="shared" si="1"/>
+        <v>304627.80582840001</v>
+      </c>
+      <c r="O38" s="4">
+        <f t="shared" si="1"/>
+        <v>159394.38399999999</v>
+      </c>
+      <c r="P38" s="4">
+        <f t="shared" si="1"/>
+        <v>132366.633</v>
+      </c>
+      <c r="Q38" s="4">
+        <f t="shared" si="1"/>
+        <v>167750.666</v>
+      </c>
+      <c r="R38" s="4">
+        <f t="shared" si="1"/>
+        <v>115642.37940960001</v>
+      </c>
+      <c r="S38" s="4">
+        <f t="shared" si="1"/>
+        <v>28800.360477900002</v>
+      </c>
+      <c r="T38" s="4">
+        <f t="shared" si="1"/>
+        <v>108790.19021700001</v>
+      </c>
+      <c r="U38" s="4">
+        <f t="shared" si="1"/>
+        <v>37289.520286200001</v>
+      </c>
+      <c r="V38" s="4">
+        <f t="shared" si="1"/>
+        <v>31972.066171599996</v>
+      </c>
+      <c r="W38" s="4">
+        <f>SUM(W3:W37)</f>
+        <v>3980.0625904000003</v>
+      </c>
+      <c r="X38" s="4">
+        <f t="shared" si="1"/>
+        <v>913408.76400000008</v>
+      </c>
+      <c r="Y38" s="4">
+        <f t="shared" si="1"/>
+        <v>780032.19400310016</v>
+      </c>
+      <c r="Z38" s="4">
+        <f t="shared" si="1"/>
+        <v>46640.817996899998</v>
+      </c>
+      <c r="AA38" s="4">
+        <f t="shared" si="1"/>
+        <v>1175386.4639999999</v>
+      </c>
+      <c r="AB38" s="4">
+        <f t="shared" si="1"/>
+        <v>564695.31200000027</v>
+      </c>
+      <c r="AC38" s="4">
+        <f t="shared" si="1"/>
+        <v>462297.98</v>
+      </c>
+      <c r="AD38" s="4">
+        <f t="shared" si="1"/>
+        <v>630439.45848869998</v>
+      </c>
+      <c r="AE38" s="4">
+        <f t="shared" si="1"/>
+        <v>40175.241511300002</v>
+      </c>
+      <c r="AF38" s="4">
+        <f t="shared" si="1"/>
+        <v>160659.128</v>
+      </c>
+      <c r="AG38" s="4">
+        <f t="shared" si="1"/>
+        <v>72174.278000000006</v>
+      </c>
+      <c r="AH38" s="4">
+        <f t="shared" si="1"/>
+        <v>96355.684999999823</v>
+      </c>
+      <c r="AI38" s="4">
+        <f t="shared" si="1"/>
+        <v>23757.155999999999</v>
+      </c>
+      <c r="AJ38" s="4">
+        <f t="shared" si="1"/>
+        <v>761603.0070000001</v>
+      </c>
+      <c r="AK38" s="4">
+        <f t="shared" si="1"/>
+        <v>761603.0070000001</v>
+      </c>
+      <c r="AL38" s="4"/>
+    </row>
+    <row r="39" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+    </row>
+    <row r="41" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A38:B38"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AL1:AL2"/>
+    <mergeCell ref="A3:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="AF1:AI1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sam 구축/sam_09_1.xlsx
+++ b/sam 구축/sam_09_1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Innovation\Desktop\김동요\jupyter\프로젝트\sam 구축\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyokim/main/jupyter/2022:Summer/프로젝트/sam 구축/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5AF882-6BCC-2642-A8C7-842A6DDF897A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32880" yWindow="1695" windowWidth="28800" windowHeight="17505" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설명표" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="미시 사회계정행렬 (최종)" sheetId="10" r:id="rId6"/>
     <sheet name="미시 사회계정행렬 (최종 국산)" sheetId="11" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -272,12 +273,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -498,6 +499,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -505,15 +515,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -841,21 +842,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -884,7 +885,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -923,7 +924,7 @@
       </c>
       <c r="O2" s="10"/>
     </row>
-    <row r="3" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="39" customHeight="1">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -946,7 +947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="39" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
@@ -957,7 +958,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="39" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" t="s">
         <v>4</v>
@@ -966,7 +967,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="39" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
@@ -980,7 +981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="39" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" t="s">
         <v>7</v>
@@ -989,7 +990,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="39" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" t="s">
         <v>8</v>
@@ -1010,7 +1011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="39" customHeight="1">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1027,7 +1028,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="39" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -1038,7 +1039,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="39" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" t="s">
         <v>13</v>
@@ -1047,7 +1048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="39" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" t="s">
         <v>14</v>
@@ -1056,7 +1057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="39" customHeight="1">
       <c r="A13" s="10" t="s">
         <v>18</v>
       </c>
@@ -1067,7 +1068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="39" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" t="s">
         <v>16</v>
@@ -1079,7 +1080,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="39" customHeight="1">
       <c r="A15" s="10" t="s">
         <v>17</v>
       </c>
@@ -1087,16 +1088,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1104,20 +1105,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="3" width="15.44140625" customWidth="1"/>
+    <col min="2" max="3" width="15.42578125" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="1" t="s">
@@ -1135,12 +1136,12 @@
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="14"/>
       <c r="N1" s="11" t="s">
         <v>18</v>
       </c>
@@ -1149,7 +1150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="1" t="s">
@@ -1193,7 +1194,7 @@
       </c>
       <c r="P2" s="11"/>
     </row>
-    <row r="3" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="39" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1228,7 +1229,7 @@
         <v>5097495.7550000008</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="39" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
@@ -1255,7 +1256,7 @@
         <v>913408.76399999997</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="39" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -1282,7 +1283,7 @@
         <v>826673.0120000001</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="39" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
@@ -1311,7 +1312,7 @@
         <v>1175386.4639999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="39" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -1337,7 +1338,7 @@
         <v>564695.31200000015</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="39" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -1372,7 +1373,7 @@
         <v>462297.98</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="39" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1403,8 +1404,8 @@
         <v>670614.69999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:16" ht="39" customHeight="1">
+      <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1430,8 +1431,8 @@
         <v>160659.128</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
+    <row r="11" spans="1:16" ht="39" customHeight="1">
+      <c r="A11" s="16"/>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1455,8 +1456,8 @@
         <v>72174.278000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
+    <row r="12" spans="1:16" ht="39" customHeight="1">
+      <c r="A12" s="16"/>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1480,8 +1481,8 @@
         <v>96355.684999999823</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:16" ht="39" customHeight="1">
+      <c r="A13" s="17"/>
       <c r="B13" s="1" t="s">
         <v>60</v>
       </c>
@@ -1505,7 +1506,7 @@
         <v>23757.155999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="39" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
@@ -1532,7 +1533,7 @@
         <v>761603.00699999998</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="39" customHeight="1">
       <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
         <v>16</v>
@@ -1560,7 +1561,7 @@
         <v>761603.00699999998</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="39" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>17</v>
       </c>
@@ -1619,22 +1620,22 @@
       </c>
       <c r="P16" s="4"/>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:9">
       <c r="I24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="J1:M1"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A13"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="J1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1642,20 +1643,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="3" width="15.44140625" customWidth="1"/>
+    <col min="2" max="3" width="15.42578125" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="1" t="s">
@@ -1673,12 +1674,12 @@
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="14"/>
       <c r="N1" s="11" t="s">
         <v>18</v>
       </c>
@@ -1687,7 +1688,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="1" t="s">
@@ -1731,7 +1732,7 @@
       </c>
       <c r="P2" s="11"/>
     </row>
-    <row r="3" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="39" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1766,7 +1767,7 @@
         <v>4560429.5980000002</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="39" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
@@ -1793,13 +1794,13 @@
         <v>913408.76399999997</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="39" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="4">
-        <v>826673.0120000001</v>
+        <v>826673.01199999999</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
@@ -1817,10 +1818,10 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4">
         <f t="shared" si="0"/>
-        <v>826673.0120000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+        <v>826673.01199999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="39" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
@@ -1849,7 +1850,7 @@
         <v>1175386.4639999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="39" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -1858,7 +1859,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="5">
         <f>C5-E6</f>
-        <v>564695.31200000015</v>
+        <v>564695.31199999992</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1872,10 +1873,10 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4">
         <f t="shared" si="0"/>
-        <v>564695.31200000015</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+        <v>564695.31199999992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="39" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -1910,7 +1911,7 @@
         <v>462297.98</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="39" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1941,8 +1942,8 @@
         <v>670614.69999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:16" ht="39" customHeight="1">
+      <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1968,8 +1969,8 @@
         <v>160659.128</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
+    <row r="11" spans="1:16" ht="39" customHeight="1">
+      <c r="A11" s="16"/>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1993,8 +1994,8 @@
         <v>72174.278000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
+    <row r="12" spans="1:16" ht="39" customHeight="1">
+      <c r="A12" s="16"/>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2018,8 +2019,8 @@
         <v>96355.684999999823</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:16" ht="39" customHeight="1">
+      <c r="A13" s="17"/>
       <c r="B13" s="1" t="s">
         <v>60</v>
       </c>
@@ -2043,7 +2044,7 @@
         <v>23757.155999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="39" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
@@ -2070,7 +2071,7 @@
         <v>761603.00699999998</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="39" customHeight="1">
       <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
         <v>16</v>
@@ -2098,7 +2099,7 @@
         <v>761603.00699999998</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="39" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>17</v>
       </c>
@@ -2108,12 +2109,12 @@
         <v>4560429.5980000002</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" ref="D16:P16" si="1">SUM(D3:D15)</f>
+        <f t="shared" ref="D16:O16" si="1">SUM(D3:D15)</f>
         <v>913408.76399999997</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" si="1"/>
-        <v>826673.0120000001</v>
+        <v>826673.01199999987</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="1"/>
@@ -2157,22 +2158,22 @@
       </c>
       <c r="P16" s="4"/>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:9">
       <c r="I24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A10:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="J1:M1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2180,7 +2181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AL39"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="73" workbookViewId="0">
@@ -2190,34 +2191,34 @@
       <selection pane="bottomRight" activeCell="I37" sqref="I37:AL38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="33" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="24" max="28" width="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="30" max="32" width="11" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11" customWidth="1"/>
     <col min="34" max="36" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="33" customHeight="1">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="11" t="s">
@@ -2255,12 +2256,12 @@
       <c r="AC1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AD1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="17"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="14"/>
       <c r="AH1" s="11" t="s">
         <v>18</v>
       </c>
@@ -2269,7 +2270,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" ht="33" customHeight="1">
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="1" t="s">
@@ -2373,7 +2374,7 @@
       </c>
       <c r="AJ2" s="11"/>
     </row>
-    <row r="3" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" ht="33" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -2469,7 +2470,7 @@
       </c>
       <c r="AL3" s="2"/>
     </row>
-    <row r="4" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" ht="33" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>35</v>
@@ -2562,7 +2563,7 @@
         <v>150977.182</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" ht="33" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>36</v>
@@ -2655,7 +2656,7 @@
         <v>2241252.3016307</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" ht="33" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>37</v>
@@ -2748,7 +2749,7 @@
         <v>179126.80124100001</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" ht="33" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>38</v>
@@ -2841,7 +2842,7 @@
         <v>121361.61599999999</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" ht="33" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
         <v>39</v>
@@ -2934,7 +2935,7 @@
         <v>275175.86499999999</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" ht="33" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="1" t="s">
         <v>40</v>
@@ -3027,7 +3028,7 @@
         <v>179806.57399999999</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" ht="33" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
         <v>41</v>
@@ -3120,7 +3121,7 @@
         <v>190141.247</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" ht="33" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="1" t="s">
         <v>42</v>
@@ -3213,7 +3214,7 @@
         <v>124597.65550840001</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" ht="33" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="1" t="s">
         <v>43</v>
@@ -3306,7 +3307,7 @@
         <v>188464.76500000001</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" ht="33" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
         <v>44</v>
@@ -3399,7 +3400,7 @@
         <v>232016.86000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" ht="33" customHeight="1">
       <c r="A14" s="11"/>
       <c r="B14" s="1" t="s">
         <v>45</v>
@@ -3492,7 +3493,7 @@
         <v>338248.21692560002</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" ht="33" customHeight="1">
       <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
         <v>46</v>
@@ -3585,7 +3586,7 @@
         <v>160046.372</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" ht="33" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" s="1" t="s">
         <v>47</v>
@@ -3678,7 +3679,7 @@
         <v>132374.12899999999</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" ht="33" customHeight="1">
       <c r="A17" s="11"/>
       <c r="B17" s="1" t="s">
         <v>48</v>
@@ -3771,7 +3772,7 @@
         <v>167751.88099999999</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" ht="33" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="1" t="s">
         <v>49</v>
@@ -3864,7 +3865,7 @@
         <v>116722.49395760002</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" ht="33" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="1" t="s">
         <v>50</v>
@@ -3957,7 +3958,7 @@
         <v>33844.200369300001</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" ht="33" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="1" t="s">
         <v>51</v>
@@ -4050,7 +4051,7 @@
         <v>110254.13775900002</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" ht="33" customHeight="1">
       <c r="A21" s="11"/>
       <c r="B21" s="1" t="s">
         <v>52</v>
@@ -4143,7 +4144,7 @@
         <v>39883.651491599994</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" ht="33" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="1" t="s">
         <v>53</v>
@@ -4236,7 +4237,7 @@
         <v>36336.05607440001</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" ht="33" customHeight="1">
       <c r="A23" s="11"/>
       <c r="B23" s="1" t="s">
         <v>54</v>
@@ -4329,7 +4330,7 @@
         <v>4054.3380424000002</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" ht="33" customHeight="1">
       <c r="A24" s="11" t="s">
         <v>2</v>
       </c>
@@ -4416,7 +4417,7 @@
         <v>913408.76400000008</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" ht="33" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="1" t="s">
         <v>4</v>
@@ -4501,7 +4502,7 @@
         <v>826673.01199999987</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" ht="33" customHeight="1">
       <c r="A26" s="11" t="s">
         <v>5</v>
       </c>
@@ -4551,7 +4552,7 @@
         <v>1175386.4640000002</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" ht="33" customHeight="1">
       <c r="A27" s="11"/>
       <c r="B27" s="1" t="s">
         <v>7</v>
@@ -4596,7 +4597,7 @@
         <v>564695.31200000015</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" ht="33" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" s="1" t="s">
         <v>8</v>
@@ -4651,7 +4652,7 @@
         <v>462297.98</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" ht="33" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -4702,8 +4703,8 @@
         <v>670614.69999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:36" ht="33" customHeight="1">
+      <c r="A30" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -4789,8 +4790,8 @@
         <v>160659.128</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
+    <row r="31" spans="1:36" ht="33" customHeight="1">
+      <c r="A31" s="16"/>
       <c r="B31" s="1" t="s">
         <v>13</v>
       </c>
@@ -4834,8 +4835,8 @@
         <v>72174.278000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
+    <row r="32" spans="1:36" ht="33" customHeight="1">
+      <c r="A32" s="16"/>
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
@@ -4879,8 +4880,8 @@
         <v>96355.684999999823</v>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
+    <row r="33" spans="1:36" ht="33" customHeight="1">
+      <c r="A33" s="17"/>
       <c r="B33" s="1" t="s">
         <v>60</v>
       </c>
@@ -4964,7 +4965,7 @@
         <v>23757.156000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" ht="33" customHeight="1">
       <c r="A34" s="11" t="s">
         <v>18</v>
       </c>
@@ -5012,7 +5013,7 @@
         <v>761603.0070000001</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:36" ht="33" customHeight="1">
       <c r="A35" s="11"/>
       <c r="B35" s="1" t="s">
         <v>16</v>
@@ -5099,7 +5100,7 @@
         <v>761603.00699999998</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:36" ht="33" customHeight="1">
       <c r="A36" s="11" t="s">
         <v>17</v>
       </c>
@@ -5238,11 +5239,16 @@
       </c>
       <c r="AJ36" s="4"/>
     </row>
-    <row r="39" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:36" ht="33" customHeight="1">
       <c r="C39" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A3:A23"/>
+    <mergeCell ref="A30:A33"/>
     <mergeCell ref="AJ1:AJ2"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="C1:W1"/>
@@ -5251,11 +5257,6 @@
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A3:A23"/>
-    <mergeCell ref="A30:A33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5263,7 +5264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AM39"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="73" workbookViewId="0">
@@ -5273,34 +5274,34 @@
       <selection pane="bottomRight" activeCell="T39" sqref="T38:AN39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="33" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="24" max="28" width="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="30" max="32" width="11" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11" customWidth="1"/>
     <col min="34" max="36" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" ht="33" customHeight="1">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="11" t="s">
@@ -5338,12 +5339,12 @@
       <c r="AC1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AD1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="17"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="14"/>
       <c r="AH1" s="11" t="s">
         <v>18</v>
       </c>
@@ -5352,7 +5353,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" ht="33" customHeight="1">
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="1" t="s">
@@ -5456,7 +5457,7 @@
       </c>
       <c r="AJ2" s="11"/>
     </row>
-    <row r="3" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" ht="33" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -5553,7 +5554,7 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
     </row>
-    <row r="4" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" ht="33" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>35</v>
@@ -5646,7 +5647,7 @@
         <v>6468.3620000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" ht="33" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>36</v>
@@ -5739,7 +5740,7 @@
         <v>1934621.8735221003</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" ht="33" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>37</v>
@@ -5832,7 +5833,7 @@
         <v>176748.366783</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" ht="33" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>38</v>
@@ -5925,7 +5926,7 @@
         <v>121254.18500000001</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" ht="33" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
         <v>39</v>
@@ -6018,7 +6019,7 @@
         <v>275171.24600000004</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" ht="33" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="1" t="s">
         <v>40</v>
@@ -6111,7 +6112,7 @@
         <v>164675.005</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" ht="33" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
         <v>41</v>
@@ -6204,7 +6205,7 @@
         <v>188263.79900000003</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" ht="33" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="1" t="s">
         <v>42</v>
@@ -6297,7 +6298,7 @@
         <v>119801.93171380002</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" ht="33" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="1" t="s">
         <v>43</v>
@@ -6390,7 +6391,7 @@
         <v>185422.64699999997</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" ht="33" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
         <v>44</v>
@@ -6483,7 +6484,7 @@
         <v>230695.64600000001</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" ht="33" customHeight="1">
       <c r="A14" s="11"/>
       <c r="B14" s="1" t="s">
         <v>45</v>
@@ -6577,7 +6578,7 @@
       </c>
       <c r="AM14" s="2"/>
     </row>
-    <row r="15" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" ht="33" customHeight="1">
       <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
         <v>46</v>
@@ -6670,7 +6671,7 @@
         <v>159394.38399999999</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" ht="33" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" s="1" t="s">
         <v>47</v>
@@ -6763,7 +6764,7 @@
         <v>132366.633</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" ht="33" customHeight="1">
       <c r="A17" s="11"/>
       <c r="B17" s="1" t="s">
         <v>48</v>
@@ -6856,7 +6857,7 @@
         <v>167750.666</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" ht="33" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="1" t="s">
         <v>49</v>
@@ -6949,7 +6950,7 @@
         <v>115642.37940960001</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" ht="33" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="1" t="s">
         <v>50</v>
@@ -7042,7 +7043,7 @@
         <v>28800.360477899994</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" ht="33" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="1" t="s">
         <v>51</v>
@@ -7135,7 +7136,7 @@
         <v>108790.19021700001</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" ht="33" customHeight="1">
       <c r="A21" s="11"/>
       <c r="B21" s="1" t="s">
         <v>52</v>
@@ -7228,7 +7229,7 @@
         <v>37289.520286200001</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" ht="33" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="1" t="s">
         <v>53</v>
@@ -7321,7 +7322,7 @@
         <v>31972.066171599996</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" ht="33" customHeight="1">
       <c r="A23" s="11"/>
       <c r="B23" s="1" t="s">
         <v>54</v>
@@ -7414,7 +7415,7 @@
         <v>3980.0625904000003</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" ht="33" customHeight="1">
       <c r="A24" s="11" t="s">
         <v>2</v>
       </c>
@@ -7501,7 +7502,7 @@
         <v>913408.76400000008</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" ht="33" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="1" t="s">
         <v>4</v>
@@ -7586,7 +7587,7 @@
         <v>826673.01199999987</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" ht="33" customHeight="1">
       <c r="A26" s="11" t="s">
         <v>5</v>
       </c>
@@ -7636,7 +7637,7 @@
         <v>1175386.4640000002</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" ht="33" customHeight="1">
       <c r="A27" s="11"/>
       <c r="B27" s="1" t="s">
         <v>7</v>
@@ -7681,7 +7682,7 @@
         <v>564695.31200000015</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" ht="33" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" s="1" t="s">
         <v>8</v>
@@ -7737,7 +7738,7 @@
         <v>462297.98000000033</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" ht="33" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -7788,8 +7789,8 @@
         <v>670614.69999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:36" ht="33" customHeight="1">
+      <c r="A30" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -7875,8 +7876,8 @@
         <v>160659.12800000035</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
+    <row r="31" spans="1:36" ht="33" customHeight="1">
+      <c r="A31" s="16"/>
       <c r="B31" s="1" t="s">
         <v>13</v>
       </c>
@@ -7920,8 +7921,8 @@
         <v>72174.278000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
+    <row r="32" spans="1:36" ht="33" customHeight="1">
+      <c r="A32" s="16"/>
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
@@ -7965,8 +7966,8 @@
         <v>96355.684999999823</v>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
+    <row r="33" spans="1:36" ht="33" customHeight="1">
+      <c r="A33" s="17"/>
       <c r="B33" s="1" t="s">
         <v>60</v>
       </c>
@@ -8050,7 +8051,7 @@
         <v>23757.156000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" ht="33" customHeight="1">
       <c r="A34" s="11" t="s">
         <v>18</v>
       </c>
@@ -8098,7 +8099,7 @@
         <v>761603.0070000001</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:36" ht="33" customHeight="1">
       <c r="A35" s="11"/>
       <c r="B35" s="1" t="s">
         <v>16</v>
@@ -8185,7 +8186,7 @@
         <v>761603.00699999998</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:36" ht="33" customHeight="1">
       <c r="A36" s="11" t="s">
         <v>17</v>
       </c>
@@ -8324,10 +8325,10 @@
       </c>
       <c r="AJ36" s="4"/>
     </row>
-    <row r="37" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:36" ht="33" customHeight="1">
       <c r="C37" s="7"/>
     </row>
-    <row r="38" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:36" ht="33" customHeight="1">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -8351,7 +8352,7 @@
       <c r="W38" s="2"/>
       <c r="AC38" s="2"/>
     </row>
-    <row r="39" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:36" ht="33" customHeight="1">
       <c r="C39" s="7"/>
     </row>
   </sheetData>
@@ -8376,7 +8377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AN41"/>
   <sheetViews>
     <sheetView zoomScale="65" zoomScaleNormal="73" workbookViewId="0">
@@ -8386,37 +8387,37 @@
       <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="33" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="11" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11" customWidth="1"/>
     <col min="27" max="29" width="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.6640625" customWidth="1"/>
+    <col min="30" max="30" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.7109375" customWidth="1"/>
     <col min="32" max="34" width="11" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="11" customWidth="1"/>
     <col min="36" max="38" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" ht="33" customHeight="1">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="11" t="s">
@@ -8442,26 +8443,26 @@
       <c r="U1" s="11"/>
       <c r="V1" s="11"/>
       <c r="W1" s="11"/>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="17"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="14"/>
       <c r="AA1" s="11" t="s">
         <v>5</v>
       </c>
       <c r="AB1" s="11"/>
       <c r="AC1" s="11"/>
-      <c r="AD1" s="15" t="s">
+      <c r="AD1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="15" t="s">
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="17"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="14"/>
       <c r="AJ1" s="11" t="s">
         <v>18</v>
       </c>
@@ -8470,7 +8471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" ht="33" customHeight="1">
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="1" t="s">
@@ -8580,7 +8581,7 @@
       </c>
       <c r="AL2" s="11"/>
     </row>
-    <row r="3" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" ht="33" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -8678,7 +8679,7 @@
       </c>
       <c r="AN3" s="2"/>
     </row>
-    <row r="4" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="33" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>35</v>
@@ -8773,7 +8774,7 @@
         <v>150977.182</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="33" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>36</v>
@@ -8868,7 +8869,7 @@
         <v>2241252.3016307</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="33" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>37</v>
@@ -8963,7 +8964,7 @@
         <v>179126.80124100001</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="33" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>38</v>
@@ -9058,7 +9059,7 @@
         <v>121361.61599999999</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="33" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
         <v>39</v>
@@ -9153,7 +9154,7 @@
         <v>275175.86499999999</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="33" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="1" t="s">
         <v>40</v>
@@ -9248,7 +9249,7 @@
         <v>179806.57399999999</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="33" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
         <v>41</v>
@@ -9343,7 +9344,7 @@
         <v>190141.247</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="33" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="1" t="s">
         <v>42</v>
@@ -9438,7 +9439,7 @@
         <v>124597.65550840001</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="33" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="1" t="s">
         <v>43</v>
@@ -9533,7 +9534,7 @@
         <v>188464.76500000001</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="33" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
         <v>44</v>
@@ -9628,7 +9629,7 @@
         <v>232016.86000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="33" customHeight="1">
       <c r="A14" s="11"/>
       <c r="B14" s="1" t="s">
         <v>45</v>
@@ -9723,7 +9724,7 @@
         <v>338248.21692560002</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="33" customHeight="1">
       <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
         <v>46</v>
@@ -9818,7 +9819,7 @@
         <v>160046.372</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="33" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" s="1" t="s">
         <v>47</v>
@@ -9913,7 +9914,7 @@
         <v>132374.12899999999</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" ht="33" customHeight="1">
       <c r="A17" s="11"/>
       <c r="B17" s="1" t="s">
         <v>48</v>
@@ -10008,7 +10009,7 @@
         <v>167751.88099999999</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" ht="33" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="1" t="s">
         <v>49</v>
@@ -10103,7 +10104,7 @@
         <v>116722.49395760002</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" ht="33" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="1" t="s">
         <v>50</v>
@@ -10198,7 +10199,7 @@
         <v>33844.200369300001</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" ht="33" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="1" t="s">
         <v>51</v>
@@ -10293,7 +10294,7 @@
         <v>110254.13775900002</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" ht="33" customHeight="1">
       <c r="A21" s="11"/>
       <c r="B21" s="1" t="s">
         <v>52</v>
@@ -10388,7 +10389,7 @@
         <v>39883.651491599994</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" ht="33" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="1" t="s">
         <v>53</v>
@@ -10483,7 +10484,7 @@
         <v>36336.05607440001</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" ht="33" customHeight="1">
       <c r="A23" s="11"/>
       <c r="B23" s="1" t="s">
         <v>54</v>
@@ -10580,8 +10581,8 @@
         <v>4054.3380424000002</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:38" ht="33" customHeight="1">
+      <c r="A24" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -10669,8 +10670,8 @@
         <v>913408.76400000008</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
+    <row r="25" spans="1:38" ht="33" customHeight="1">
+      <c r="A25" s="16"/>
       <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
@@ -10741,8 +10742,8 @@
         <v>780032.19400309992</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
+    <row r="26" spans="1:38" ht="33" customHeight="1">
+      <c r="A26" s="17"/>
       <c r="B26" s="1" t="s">
         <v>57</v>
       </c>
@@ -10796,7 +10797,7 @@
         <v>46640.817996899998</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" ht="33" customHeight="1">
       <c r="A27" s="11" t="s">
         <v>5</v>
       </c>
@@ -10848,7 +10849,7 @@
         <v>1175386.4640000002</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" ht="33" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" s="1" t="s">
         <v>7</v>
@@ -10897,7 +10898,7 @@
         <v>564695.31200000015</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" ht="33" customHeight="1">
       <c r="A29" s="11"/>
       <c r="B29" s="1" t="s">
         <v>8</v>
@@ -10954,8 +10955,8 @@
         <v>462297.98</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:38" ht="33" customHeight="1">
+      <c r="A30" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -11007,8 +11008,8 @@
         <v>630439.45848869998</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
+    <row r="31" spans="1:38" ht="33" customHeight="1">
+      <c r="A31" s="17"/>
       <c r="B31" s="1" t="s">
         <v>58</v>
       </c>
@@ -11054,8 +11055,8 @@
         <v>40175.241511300002</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+    <row r="32" spans="1:38" ht="33" customHeight="1">
+      <c r="A32" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -11143,8 +11144,8 @@
         <v>160659.128</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
+    <row r="33" spans="1:38" ht="33" customHeight="1">
+      <c r="A33" s="16"/>
       <c r="B33" s="1" t="s">
         <v>13</v>
       </c>
@@ -11190,8 +11191,8 @@
         <v>72174.278000000006</v>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
+    <row r="34" spans="1:38" ht="33" customHeight="1">
+      <c r="A34" s="16"/>
       <c r="B34" s="1" t="s">
         <v>14</v>
       </c>
@@ -11237,8 +11238,8 @@
         <v>96355.684999999823</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
+    <row r="35" spans="1:38" ht="33" customHeight="1">
+      <c r="A35" s="17"/>
       <c r="B35" s="1" t="s">
         <v>61</v>
       </c>
@@ -11321,7 +11322,7 @@
       <c r="AK35" s="4"/>
       <c r="AL35" s="4"/>
     </row>
-    <row r="36" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" ht="33" customHeight="1">
       <c r="A36" s="11" t="s">
         <v>18</v>
       </c>
@@ -11370,7 +11371,7 @@
         <v>761603.0070000001</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" ht="33" customHeight="1">
       <c r="A37" s="11"/>
       <c r="B37" s="1" t="s">
         <v>16</v>
@@ -11459,7 +11460,7 @@
         <v>761603.00699999998</v>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38" ht="33" customHeight="1">
       <c r="A38" s="11" t="s">
         <v>17</v>
       </c>
@@ -11606,17 +11607,11 @@
       </c>
       <c r="AL38" s="4"/>
     </row>
-    <row r="41" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:38" ht="33" customHeight="1">
       <c r="C41" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A32:A35"/>
     <mergeCell ref="AL1:AL2"/>
     <mergeCell ref="A3:A23"/>
     <mergeCell ref="A27:A29"/>
@@ -11626,6 +11621,12 @@
     <mergeCell ref="C1:W1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A32:A35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11633,47 +11634,47 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AN41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD40" sqref="A40:AD40"/>
+      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="33" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="11" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11" customWidth="1"/>
     <col min="27" max="29" width="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.6640625" customWidth="1"/>
+    <col min="30" max="30" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.7109375" customWidth="1"/>
     <col min="32" max="34" width="11" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="11" customWidth="1"/>
     <col min="36" max="38" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" ht="33" customHeight="1">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="11" t="s">
@@ -11699,26 +11700,26 @@
       <c r="U1" s="11"/>
       <c r="V1" s="11"/>
       <c r="W1" s="11"/>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="17"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="14"/>
       <c r="AA1" s="11" t="s">
         <v>5</v>
       </c>
       <c r="AB1" s="11"/>
       <c r="AC1" s="11"/>
-      <c r="AD1" s="15" t="s">
+      <c r="AD1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="15" t="s">
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="17"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="14"/>
       <c r="AJ1" s="11" t="s">
         <v>18</v>
       </c>
@@ -11727,7 +11728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" ht="33" customHeight="1">
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="1" t="s">
@@ -11837,7 +11838,7 @@
       </c>
       <c r="AL2" s="11"/>
     </row>
-    <row r="3" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" ht="33" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -11936,7 +11937,7 @@
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
     </row>
-    <row r="4" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="33" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>35</v>
@@ -12031,7 +12032,7 @@
         <v>6468.3620000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="33" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>36</v>
@@ -12126,7 +12127,7 @@
         <v>1934621.8735221003</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="33" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>37</v>
@@ -12221,7 +12222,7 @@
         <v>176748.366783</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="33" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>38</v>
@@ -12316,7 +12317,7 @@
         <v>121254.18500000001</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="33" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
         <v>39</v>
@@ -12411,7 +12412,7 @@
         <v>275171.24600000004</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="33" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="1" t="s">
         <v>40</v>
@@ -12506,7 +12507,7 @@
         <v>164675.005</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="33" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
         <v>41</v>
@@ -12601,7 +12602,7 @@
         <v>188263.79900000003</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="33" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="1" t="s">
         <v>42</v>
@@ -12696,7 +12697,7 @@
         <v>119801.93171380002</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="33" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="1" t="s">
         <v>43</v>
@@ -12791,7 +12792,7 @@
         <v>185422.64699999997</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="33" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
         <v>44</v>
@@ -12886,7 +12887,7 @@
         <v>230695.64600000001</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="33" customHeight="1">
       <c r="A14" s="11"/>
       <c r="B14" s="1" t="s">
         <v>45</v>
@@ -12981,7 +12982,7 @@
         <v>304627.80582840001</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="33" customHeight="1">
       <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
         <v>46</v>
@@ -13076,7 +13077,7 @@
         <v>159394.38399999999</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="33" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" s="1" t="s">
         <v>47</v>
@@ -13171,7 +13172,7 @@
         <v>132366.633</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" ht="33" customHeight="1">
       <c r="A17" s="11"/>
       <c r="B17" s="1" t="s">
         <v>48</v>
@@ -13266,7 +13267,7 @@
         <v>167750.666</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" ht="33" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="1" t="s">
         <v>49</v>
@@ -13361,7 +13362,7 @@
         <v>115642.37940960001</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" ht="33" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="1" t="s">
         <v>50</v>
@@ -13456,7 +13457,7 @@
         <v>28800.360477899994</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" ht="33" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="1" t="s">
         <v>51</v>
@@ -13551,7 +13552,7 @@
         <v>108790.19021700001</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" ht="33" customHeight="1">
       <c r="A21" s="11"/>
       <c r="B21" s="1" t="s">
         <v>52</v>
@@ -13646,7 +13647,7 @@
         <v>37289.520286200001</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" ht="33" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="1" t="s">
         <v>53</v>
@@ -13741,7 +13742,7 @@
         <v>31972.066171599996</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" ht="33" customHeight="1">
       <c r="A23" s="11"/>
       <c r="B23" s="1" t="s">
         <v>54</v>
@@ -13838,8 +13839,8 @@
         <v>3980.0625904000003</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:38" ht="33" customHeight="1">
+      <c r="A24" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -13927,8 +13928,8 @@
         <v>913408.76400000008</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
+    <row r="25" spans="1:38" ht="33" customHeight="1">
+      <c r="A25" s="16"/>
       <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
@@ -13999,8 +14000,8 @@
         <v>780032.19400309992</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
+    <row r="26" spans="1:38" ht="33" customHeight="1">
+      <c r="A26" s="17"/>
       <c r="B26" s="1" t="s">
         <v>57</v>
       </c>
@@ -14054,7 +14055,7 @@
         <v>46640.817996899998</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" ht="33" customHeight="1">
       <c r="A27" s="11" t="s">
         <v>5</v>
       </c>
@@ -14106,7 +14107,7 @@
         <v>1175386.4640000002</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" ht="33" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" s="1" t="s">
         <v>7</v>
@@ -14155,7 +14156,7 @@
         <v>564695.31200000015</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" ht="33" customHeight="1">
       <c r="A29" s="11"/>
       <c r="B29" s="1" t="s">
         <v>8</v>
@@ -14212,8 +14213,8 @@
         <v>462297.98</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:38" ht="33" customHeight="1">
+      <c r="A30" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -14265,8 +14266,8 @@
         <v>630439.45848869998</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
+    <row r="31" spans="1:38" ht="33" customHeight="1">
+      <c r="A31" s="17"/>
       <c r="B31" s="1" t="s">
         <v>58</v>
       </c>
@@ -14312,8 +14313,8 @@
         <v>40175.241511300002</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+    <row r="32" spans="1:38" ht="33" customHeight="1">
+      <c r="A32" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -14401,8 +14402,8 @@
         <v>160659.12800000035</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
+    <row r="33" spans="1:38" ht="33" customHeight="1">
+      <c r="A33" s="16"/>
       <c r="B33" s="1" t="s">
         <v>13</v>
       </c>
@@ -14448,8 +14449,8 @@
         <v>72174.278000000006</v>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
+    <row r="34" spans="1:38" ht="33" customHeight="1">
+      <c r="A34" s="16"/>
       <c r="B34" s="1" t="s">
         <v>14</v>
       </c>
@@ -14495,8 +14496,8 @@
         <v>96355.684999999823</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
+    <row r="35" spans="1:38" ht="33" customHeight="1">
+      <c r="A35" s="17"/>
       <c r="B35" s="1" t="s">
         <v>61</v>
       </c>
@@ -14582,7 +14583,7 @@
         <v>23757.156000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" ht="33" customHeight="1">
       <c r="A36" s="11" t="s">
         <v>18</v>
       </c>
@@ -14631,7 +14632,7 @@
         <v>761603.0070000001</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" ht="33" customHeight="1">
       <c r="A37" s="11"/>
       <c r="B37" s="1" t="s">
         <v>16</v>
@@ -14720,7 +14721,7 @@
         <v>761603.00699999998</v>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38" ht="33" customHeight="1">
       <c r="A38" s="11" t="s">
         <v>17</v>
       </c>
@@ -14867,10 +14868,10 @@
       </c>
       <c r="AL38" s="4"/>
     </row>
-    <row r="39" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:38" ht="33" customHeight="1">
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:38" ht="33" customHeight="1">
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -14893,7 +14894,7 @@
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
     </row>
-    <row r="41" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:38" ht="33" customHeight="1">
       <c r="C41" s="2"/>
     </row>
   </sheetData>
